--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="986">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3670,10 +3670,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>立冬福袋</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3825,10 +3821,6 @@
   </si>
   <si>
     <t>11月23日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>11月30日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4214,6 +4206,24 @@
   <si>
     <t>爆竹排行榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_hhl_style/act_001_hhl</t>
+  </si>
+  <si>
+    <t>act_039_ty_by_hhl_style/act_002_hhl</t>
   </si>
 </sst>
 </file>
@@ -4818,13 +4828,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F320" sqref="F320"/>
+      <selection pane="bottomRight" activeCell="A307" sqref="A307:A322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11337,7 +11347,7 @@
         <v>755</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D257" s="26" t="s">
         <v>756</v>
@@ -11352,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11853,7 +11863,7 @@
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="29" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5">
@@ -11887,7 +11897,7 @@
         <v>828</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D278" s="35" t="s">
         <v>829</v>
@@ -11903,7 +11913,7 @@
       </c>
       <c r="H278" s="15"/>
       <c r="I278" s="15" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12167,27 +12177,27 @@
       <c r="A289" s="16">
         <v>288</v>
       </c>
-      <c r="B289" s="15" t="s">
+      <c r="B289" s="31" t="s">
         <v>867</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="C289" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="D289" s="31" t="s">
         <v>869</v>
       </c>
-      <c r="D289" s="15" t="s">
-        <v>870</v>
-      </c>
-      <c r="E289" s="17">
-        <v>0</v>
-      </c>
-      <c r="F289" s="17">
-        <v>0</v>
-      </c>
-      <c r="G289" s="17">
-        <v>0</v>
-      </c>
-      <c r="H289" s="17"/>
-      <c r="I289" s="15" t="s">
-        <v>868</v>
+      <c r="E289" s="32">
+        <v>1</v>
+      </c>
+      <c r="F289" s="32">
+        <v>1</v>
+      </c>
+      <c r="G289" s="32">
+        <v>1</v>
+      </c>
+      <c r="H289" s="32"/>
+      <c r="I289" s="31" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12195,25 +12205,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="37" t="s">
+        <v>870</v>
+      </c>
+      <c r="C290" s="37" t="s">
         <v>871</v>
       </c>
-      <c r="C290" s="37" t="s">
+      <c r="D290" s="38" t="s">
         <v>872</v>
       </c>
-      <c r="D290" s="38" t="s">
+      <c r="E290" s="39">
+        <v>1</v>
+      </c>
+      <c r="F290" s="39">
+        <v>1</v>
+      </c>
+      <c r="G290" s="39">
+        <v>1</v>
+      </c>
+      <c r="I290" s="40" t="s">
         <v>873</v>
-      </c>
-      <c r="E290" s="39">
-        <v>1</v>
-      </c>
-      <c r="F290" s="39">
-        <v>1</v>
-      </c>
-      <c r="G290" s="39">
-        <v>1</v>
-      </c>
-      <c r="I290" s="40" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12221,25 +12231,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="38" t="s">
+        <v>874</v>
+      </c>
+      <c r="C291" s="37" t="s">
         <v>875</v>
       </c>
-      <c r="C291" s="37" t="s">
+      <c r="D291" s="38" t="s">
         <v>876</v>
       </c>
-      <c r="D291" s="38" t="s">
+      <c r="E291" s="39">
+        <v>1</v>
+      </c>
+      <c r="F291" s="39">
+        <v>1</v>
+      </c>
+      <c r="G291" s="39">
+        <v>1</v>
+      </c>
+      <c r="I291" s="40" t="s">
         <v>877</v>
-      </c>
-      <c r="E291" s="39">
-        <v>1</v>
-      </c>
-      <c r="F291" s="39">
-        <v>1</v>
-      </c>
-      <c r="G291" s="39">
-        <v>1</v>
-      </c>
-      <c r="I291" s="40" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12247,13 +12257,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="38" t="s">
+        <v>878</v>
+      </c>
+      <c r="C292" s="37" t="s">
         <v>879</v>
       </c>
-      <c r="C292" s="37" t="s">
+      <c r="D292" s="38" t="s">
         <v>880</v>
-      </c>
-      <c r="D292" s="38" t="s">
-        <v>881</v>
       </c>
       <c r="E292" s="39">
         <v>1</v>
@@ -12273,13 +12283,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C293" s="37" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D293" s="38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E293" s="39">
         <v>1</v>
@@ -12299,25 +12309,25 @@
         <v>293</v>
       </c>
       <c r="B294" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C294" s="37" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D294" s="38" t="s">
+        <v>884</v>
+      </c>
+      <c r="E294" s="39">
+        <v>1</v>
+      </c>
+      <c r="F294" s="39">
+        <v>1</v>
+      </c>
+      <c r="G294" s="39">
+        <v>1</v>
+      </c>
+      <c r="I294" s="40" t="s">
         <v>885</v>
-      </c>
-      <c r="E294" s="39">
-        <v>1</v>
-      </c>
-      <c r="F294" s="39">
-        <v>1</v>
-      </c>
-      <c r="G294" s="39">
-        <v>1</v>
-      </c>
-      <c r="I294" s="40" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="295" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12325,13 +12335,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="38" t="s">
+        <v>888</v>
+      </c>
+      <c r="C295" s="37" t="s">
         <v>889</v>
       </c>
-      <c r="C295" s="37" t="s">
+      <c r="D295" s="38" t="s">
         <v>890</v>
-      </c>
-      <c r="D295" s="38" t="s">
-        <v>891</v>
       </c>
       <c r="E295" s="39">
         <v>1</v>
@@ -12351,13 +12361,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="C296" s="37" t="s">
         <v>892</v>
       </c>
-      <c r="C296" s="37" t="s">
+      <c r="D296" s="38" t="s">
         <v>893</v>
-      </c>
-      <c r="D296" s="38" t="s">
-        <v>894</v>
       </c>
       <c r="E296" s="39">
         <v>1</v>
@@ -12377,13 +12387,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="C297" s="15" t="s">
-        <v>896</v>
-      </c>
       <c r="D297" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12395,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12403,13 +12413,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -12421,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5">
@@ -12429,14 +12439,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="20" t="s">
+        <v>900</v>
+      </c>
+      <c r="C299" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="D299" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="D299" s="20" t="s">
-        <v>903</v>
-      </c>
       <c r="E299">
         <v>0</v>
       </c>
@@ -12447,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12455,25 +12465,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
+        <v>903</v>
+      </c>
+      <c r="C300" s="37" t="s">
         <v>904</v>
       </c>
-      <c r="C300" s="37" t="s">
+      <c r="D300" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="D300" s="38" t="s">
+      <c r="E300" s="39">
+        <v>1</v>
+      </c>
+      <c r="F300" s="39">
+        <v>1</v>
+      </c>
+      <c r="G300" s="39">
+        <v>1</v>
+      </c>
+      <c r="I300" s="40" t="s">
         <v>906</v>
-      </c>
-      <c r="E300" s="39">
-        <v>1</v>
-      </c>
-      <c r="F300" s="39">
-        <v>1</v>
-      </c>
-      <c r="G300" s="39">
-        <v>1</v>
-      </c>
-      <c r="I300" s="40" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12481,13 +12491,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="C301" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="D301" s="18" t="s">
         <v>911</v>
-      </c>
-      <c r="C301" s="15" t="s">
-        <v>912</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>913</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12500,7 +12510,7 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12508,13 +12518,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D302" s="18" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12527,32 +12537,30 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="28" t="s">
+      <c r="B303" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="C303" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="C303" s="26" t="s">
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="I303" s="15" t="s">
         <v>939</v>
-      </c>
-      <c r="D303" s="27"/>
-      <c r="E303" s="27">
-        <v>1</v>
-      </c>
-      <c r="F303" s="27">
-        <v>1</v>
-      </c>
-      <c r="G303" s="27">
-        <v>1</v>
-      </c>
-      <c r="H303" s="27"/>
-      <c r="I303" s="26" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12560,13 +12568,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C304" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="D304" s="18" t="s">
         <v>918</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>920</v>
       </c>
       <c r="E304" s="17">
         <v>0</v>
@@ -12579,7 +12587,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12587,25 +12595,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="38" t="s">
+        <v>919</v>
+      </c>
+      <c r="C305" s="37" t="s">
+        <v>925</v>
+      </c>
+      <c r="D305" s="38" t="s">
+        <v>920</v>
+      </c>
+      <c r="E305" s="39">
+        <v>1</v>
+      </c>
+      <c r="F305" s="39">
+        <v>1</v>
+      </c>
+      <c r="G305" s="39">
+        <v>1</v>
+      </c>
+      <c r="I305" s="40" t="s">
         <v>921</v>
-      </c>
-      <c r="C305" s="37" t="s">
-        <v>927</v>
-      </c>
-      <c r="D305" s="38" t="s">
-        <v>922</v>
-      </c>
-      <c r="E305" s="39">
-        <v>1</v>
-      </c>
-      <c r="F305" s="39">
-        <v>1</v>
-      </c>
-      <c r="G305" s="39">
-        <v>1</v>
-      </c>
-      <c r="I305" s="40" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12613,13 +12621,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="C306" s="26" t="s">
+        <v>953</v>
+      </c>
+      <c r="D306" s="28" t="s">
         <v>949</v>
-      </c>
-      <c r="C306" s="26" t="s">
-        <v>955</v>
-      </c>
-      <c r="D306" s="28" t="s">
-        <v>951</v>
       </c>
       <c r="E306" s="27">
         <v>1</v>
@@ -12632,7 +12640,7 @@
       </c>
       <c r="H306" s="27"/>
       <c r="I306" s="26" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12640,13 +12648,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D307" s="28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E307" s="27">
         <v>1</v>
@@ -12659,7 +12667,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="26" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12667,13 +12675,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E308" s="32">
         <v>1</v>
@@ -12694,13 +12702,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12713,7 +12721,7 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12721,13 +12729,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E310" s="17">
         <v>0</v>
@@ -12740,33 +12748,33 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A311" s="36">
+      <c r="A311" s="16">
         <v>310</v>
       </c>
       <c r="B311" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="C311" s="37" t="s">
+        <v>942</v>
+      </c>
+      <c r="D311" s="38" t="s">
+        <v>940</v>
+      </c>
+      <c r="E311" s="39">
+        <v>1</v>
+      </c>
+      <c r="F311" s="39">
+        <v>1</v>
+      </c>
+      <c r="G311" s="39">
+        <v>1</v>
+      </c>
+      <c r="I311" s="37" t="s">
         <v>943</v>
-      </c>
-      <c r="C311" s="37" t="s">
-        <v>944</v>
-      </c>
-      <c r="D311" s="38" t="s">
-        <v>942</v>
-      </c>
-      <c r="E311" s="39">
-        <v>1</v>
-      </c>
-      <c r="F311" s="39">
-        <v>1</v>
-      </c>
-      <c r="G311" s="39">
-        <v>1</v>
-      </c>
-      <c r="I311" s="37" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12774,13 +12782,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="C312" s="15" t="s">
-        <v>948</v>
-      </c>
       <c r="D312" s="18" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12793,7 +12801,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12801,14 +12809,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C313" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>952</v>
       </c>
-      <c r="D313" s="18" t="s">
-        <v>954</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12819,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12827,13 +12835,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="D314" s="18" t="s">
         <v>959</v>
-      </c>
-      <c r="C314" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>961</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12850,25 +12858,25 @@
         <v>314</v>
       </c>
       <c r="B315" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>963</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="D315" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="9" t="s">
         <v>965</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>968</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12876,13 +12884,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
+        <v>962</v>
+      </c>
+      <c r="C316" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="C316" s="15" t="s">
-        <v>966</v>
-      </c>
       <c r="D316" s="34" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12902,13 +12910,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -12921,7 +12929,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="41" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -12929,13 +12937,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D318" s="42" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -12948,7 +12956,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -12956,10 +12964,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="27">
@@ -12973,7 +12981,7 @@
       </c>
       <c r="H319" s="27"/>
       <c r="I319" s="26" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -12981,10 +12989,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="28" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C320" s="26" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D320" s="27"/>
       <c r="E320" s="27">
@@ -12998,7 +13006,67 @@
       </c>
       <c r="H320" s="27"/>
       <c r="I320" s="26" t="s">
-        <v>975</v>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="16.5">
+      <c r="A321" s="16">
+        <v>320</v>
+      </c>
+      <c r="B321" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="C321" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="E321" s="27">
+        <v>1</v>
+      </c>
+      <c r="F321" s="27">
+        <v>1</v>
+      </c>
+      <c r="G321" s="27">
+        <v>1</v>
+      </c>
+      <c r="I321" s="31" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="16.5">
+      <c r="A322" s="16">
+        <v>321</v>
+      </c>
+      <c r="B322" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="C322" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="E322" s="27">
+        <v>1</v>
+      </c>
+      <c r="F322" s="27">
+        <v>1</v>
+      </c>
+      <c r="G322" s="27">
+        <v>1</v>
+      </c>
+      <c r="I322" s="31" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="E323" s="27">
+        <v>1</v>
+      </c>
+      <c r="F323" s="27">
+        <v>1</v>
+      </c>
+      <c r="G323" s="27">
+        <v>1</v>
+      </c>
+      <c r="I323" s="31" t="s">
+        <v>981</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -3158,14 +3158,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动模板1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4224,6 +4216,14 @@
   </si>
   <si>
     <t>act_039_ty_by_hhl_style/act_002_hhl</t>
+  </si>
+  <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4831,10 +4831,10 @@
   <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A307" sqref="A307:A322"/>
+      <selection pane="bottomRight" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -10800,7 +10800,7 @@
         <v>668</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>669</v>
@@ -11216,7 +11216,7 @@
         <v>735</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>736</v>
@@ -11242,7 +11242,7 @@
         <v>740</v>
       </c>
       <c r="C253" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>741</v>
@@ -11265,13 +11265,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="31" t="s">
+        <v>984</v>
+      </c>
+      <c r="C254" s="32" t="s">
         <v>742</v>
       </c>
-      <c r="C254" s="32" t="s">
-        <v>744</v>
-      </c>
       <c r="D254" s="31" t="s">
-        <v>743</v>
+        <v>985</v>
       </c>
       <c r="E254" s="32">
         <v>1</v>
@@ -11292,25 +11292,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D255" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>748</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
@@ -11318,25 +11318,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D256" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="27" customFormat="1" ht="16.5">
@@ -11344,13 +11344,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E257" s="27">
         <v>1</v>
@@ -11362,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11370,13 +11370,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E258" s="17">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11396,14 +11396,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="D259" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C259" s="15" t="s">
-        <v>762</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>763</v>
-      </c>
       <c r="E259" s="17">
         <v>0</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11422,25 +11422,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="D260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>765</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>766</v>
-      </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11448,25 +11448,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="D261" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>769</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>770</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11474,25 +11474,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>770</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D262" t="s">
+        <v>771</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>772</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D262" t="s">
-        <v>773</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
@@ -11500,13 +11500,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>776</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>778</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11526,25 +11526,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="D264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>780</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>781</v>
-      </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11552,13 +11552,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="D265" s="15" t="s">
         <v>783</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>785</v>
       </c>
       <c r="E265" s="17">
         <v>0</v>
@@ -11578,25 +11578,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="D266" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>787</v>
-      </c>
-      <c r="D266" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11604,25 +11604,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>792</v>
-      </c>
       <c r="D267" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>791</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11630,13 +11630,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="C268" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>796</v>
-      </c>
       <c r="D268" s="18" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E268" s="17">
         <v>0</v>
@@ -11656,13 +11656,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E269" s="17">
         <v>1</v>
@@ -11682,13 +11682,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11709,13 +11709,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>803</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>805</v>
       </c>
       <c r="E271" s="17">
         <v>0</v>
@@ -11736,13 +11736,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>809</v>
-      </c>
       <c r="D272" s="18" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -11763,13 +11763,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>811</v>
-      </c>
-      <c r="C273" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>813</v>
       </c>
       <c r="E273" s="17">
         <v>1</v>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -11790,13 +11790,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="C274" s="15" t="s">
-        <v>817</v>
-      </c>
       <c r="D274" s="18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E274" s="17">
         <v>1</v>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5">
@@ -11817,13 +11817,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="H275" s="17"/>
       <c r="I275" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25">
@@ -11844,13 +11844,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C276" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="D276" s="18" t="s">
         <v>822</v>
-      </c>
-      <c r="D276" s="18" t="s">
-        <v>824</v>
       </c>
       <c r="E276" s="17">
         <v>0</v>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="29" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5">
@@ -11871,22 +11871,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
@@ -11894,13 +11894,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D278" s="35" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E278" s="15">
         <v>0</v>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="H278" s="15"/>
       <c r="I278" s="15" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11921,13 +11921,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11947,22 +11947,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C280" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>832</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11970,13 +11970,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11988,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11996,13 +11996,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C282" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="C282" s="15" t="s">
-        <v>841</v>
-      </c>
       <c r="D282" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12022,13 +12022,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -12040,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="39" customFormat="1" ht="17.25" customHeight="1">
@@ -12048,25 +12048,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="C284" s="37" t="s">
+        <v>844</v>
+      </c>
+      <c r="D284" s="38" t="s">
         <v>845</v>
       </c>
-      <c r="C284" s="37" t="s">
+      <c r="E284" s="39">
+        <v>1</v>
+      </c>
+      <c r="F284" s="39">
+        <v>1</v>
+      </c>
+      <c r="G284" s="39">
+        <v>1</v>
+      </c>
+      <c r="I284" s="40" t="s">
         <v>846</v>
-      </c>
-      <c r="D284" s="38" t="s">
-        <v>847</v>
-      </c>
-      <c r="E284" s="39">
-        <v>1</v>
-      </c>
-      <c r="F284" s="39">
-        <v>1</v>
-      </c>
-      <c r="G284" s="39">
-        <v>1</v>
-      </c>
-      <c r="I284" s="40" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12074,13 +12074,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="38" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C285" s="37" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D285" s="38" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E285" s="39">
         <v>1</v>
@@ -12100,25 +12100,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="D286" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="19" t="s">
         <v>857</v>
-      </c>
-      <c r="D286" s="18" t="s">
-        <v>858</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="19" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12126,13 +12126,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="37" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C287" s="37" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D287" s="38" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E287" s="39">
         <v>1</v>
@@ -12152,25 +12152,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="37" t="s">
+        <v>861</v>
+      </c>
+      <c r="C288" s="37" t="s">
+        <v>862</v>
+      </c>
+      <c r="D288" s="38" t="s">
         <v>863</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="E288" s="39">
+        <v>1</v>
+      </c>
+      <c r="F288" s="39">
+        <v>1</v>
+      </c>
+      <c r="G288" s="39">
+        <v>1</v>
+      </c>
+      <c r="I288" s="40" t="s">
         <v>864</v>
-      </c>
-      <c r="D288" s="38" t="s">
-        <v>865</v>
-      </c>
-      <c r="E288" s="39">
-        <v>1</v>
-      </c>
-      <c r="F288" s="39">
-        <v>1</v>
-      </c>
-      <c r="G288" s="39">
-        <v>1</v>
-      </c>
-      <c r="I288" s="40" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12178,13 +12178,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="C289" s="31" t="s">
+        <v>866</v>
+      </c>
+      <c r="D289" s="31" t="s">
         <v>867</v>
-      </c>
-      <c r="C289" s="31" t="s">
-        <v>868</v>
-      </c>
-      <c r="D289" s="31" t="s">
-        <v>869</v>
       </c>
       <c r="E289" s="32">
         <v>1</v>
@@ -12197,7 +12197,7 @@
       </c>
       <c r="H289" s="32"/>
       <c r="I289" s="31" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12205,25 +12205,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="37" t="s">
+        <v>868</v>
+      </c>
+      <c r="C290" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="D290" s="38" t="s">
         <v>870</v>
       </c>
-      <c r="C290" s="37" t="s">
+      <c r="E290" s="39">
+        <v>1</v>
+      </c>
+      <c r="F290" s="39">
+        <v>1</v>
+      </c>
+      <c r="G290" s="39">
+        <v>1</v>
+      </c>
+      <c r="I290" s="40" t="s">
         <v>871</v>
-      </c>
-      <c r="D290" s="38" t="s">
-        <v>872</v>
-      </c>
-      <c r="E290" s="39">
-        <v>1</v>
-      </c>
-      <c r="F290" s="39">
-        <v>1</v>
-      </c>
-      <c r="G290" s="39">
-        <v>1</v>
-      </c>
-      <c r="I290" s="40" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12231,25 +12231,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="C291" s="37" t="s">
+        <v>873</v>
+      </c>
+      <c r="D291" s="38" t="s">
         <v>874</v>
       </c>
-      <c r="C291" s="37" t="s">
+      <c r="E291" s="39">
+        <v>1</v>
+      </c>
+      <c r="F291" s="39">
+        <v>1</v>
+      </c>
+      <c r="G291" s="39">
+        <v>1</v>
+      </c>
+      <c r="I291" s="40" t="s">
         <v>875</v>
-      </c>
-      <c r="D291" s="38" t="s">
-        <v>876</v>
-      </c>
-      <c r="E291" s="39">
-        <v>1</v>
-      </c>
-      <c r="F291" s="39">
-        <v>1</v>
-      </c>
-      <c r="G291" s="39">
-        <v>1</v>
-      </c>
-      <c r="I291" s="40" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12257,13 +12257,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="38" t="s">
+        <v>876</v>
+      </c>
+      <c r="C292" s="37" t="s">
+        <v>877</v>
+      </c>
+      <c r="D292" s="38" t="s">
         <v>878</v>
-      </c>
-      <c r="C292" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="D292" s="38" t="s">
-        <v>880</v>
       </c>
       <c r="E292" s="39">
         <v>1</v>
@@ -12283,13 +12283,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="C293" s="37" t="s">
+        <v>884</v>
+      </c>
+      <c r="D293" s="38" t="s">
         <v>881</v>
-      </c>
-      <c r="C293" s="37" t="s">
-        <v>886</v>
-      </c>
-      <c r="D293" s="38" t="s">
-        <v>883</v>
       </c>
       <c r="E293" s="39">
         <v>1</v>
@@ -12309,14 +12309,14 @@
         <v>293</v>
       </c>
       <c r="B294" s="38" t="s">
+        <v>880</v>
+      </c>
+      <c r="C294" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="D294" s="38" t="s">
         <v>882</v>
       </c>
-      <c r="C294" s="37" t="s">
-        <v>887</v>
-      </c>
-      <c r="D294" s="38" t="s">
-        <v>884</v>
-      </c>
       <c r="E294" s="39">
         <v>1</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="40" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="295" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12335,13 +12335,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="C295" s="37" t="s">
+        <v>887</v>
+      </c>
+      <c r="D295" s="38" t="s">
         <v>888</v>
-      </c>
-      <c r="C295" s="37" t="s">
-        <v>889</v>
-      </c>
-      <c r="D295" s="38" t="s">
-        <v>890</v>
       </c>
       <c r="E295" s="39">
         <v>1</v>
@@ -12361,13 +12361,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="38" t="s">
+        <v>889</v>
+      </c>
+      <c r="C296" s="37" t="s">
+        <v>890</v>
+      </c>
+      <c r="D296" s="38" t="s">
         <v>891</v>
-      </c>
-      <c r="C296" s="37" t="s">
-        <v>892</v>
-      </c>
-      <c r="D296" s="38" t="s">
-        <v>893</v>
       </c>
       <c r="E296" s="39">
         <v>1</v>
@@ -12387,14 +12387,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C297" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="D297" s="20" t="s">
         <v>895</v>
       </c>
-      <c r="D297" s="20" t="s">
-        <v>897</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12413,14 +12413,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C298" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="D298" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="D298" s="20" t="s">
-        <v>898</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5">
@@ -12439,14 +12439,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D299" s="20" t="s">
         <v>900</v>
       </c>
-      <c r="C299" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="D299" s="20" t="s">
-        <v>902</v>
-      </c>
       <c r="E299">
         <v>0</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12465,25 +12465,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
+        <v>901</v>
+      </c>
+      <c r="C300" s="37" t="s">
+        <v>902</v>
+      </c>
+      <c r="D300" s="38" t="s">
         <v>903</v>
       </c>
-      <c r="C300" s="37" t="s">
+      <c r="E300" s="39">
+        <v>1</v>
+      </c>
+      <c r="F300" s="39">
+        <v>1</v>
+      </c>
+      <c r="G300" s="39">
+        <v>1</v>
+      </c>
+      <c r="I300" s="40" t="s">
         <v>904</v>
-      </c>
-      <c r="D300" s="38" t="s">
-        <v>905</v>
-      </c>
-      <c r="E300" s="39">
-        <v>1</v>
-      </c>
-      <c r="F300" s="39">
-        <v>1</v>
-      </c>
-      <c r="G300" s="39">
-        <v>1</v>
-      </c>
-      <c r="I300" s="40" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12491,13 +12491,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="C301" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="D301" s="18" t="s">
         <v>909</v>
-      </c>
-      <c r="C301" s="15" t="s">
-        <v>910</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>911</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12510,7 +12510,7 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12518,13 +12518,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D302" s="18" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12545,22 +12545,22 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="C303" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="C303" s="15" t="s">
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="I303" s="15" t="s">
         <v>937</v>
-      </c>
-      <c r="E303" s="17">
-        <v>1</v>
-      </c>
-      <c r="F303" s="17">
-        <v>1</v>
-      </c>
-      <c r="G303" s="17">
-        <v>1</v>
-      </c>
-      <c r="I303" s="15" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12568,13 +12568,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C304" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="D304" s="18" t="s">
         <v>916</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>918</v>
       </c>
       <c r="E304" s="17">
         <v>0</v>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12595,25 +12595,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="C305" s="37" t="s">
+        <v>923</v>
+      </c>
+      <c r="D305" s="38" t="s">
+        <v>918</v>
+      </c>
+      <c r="E305" s="39">
+        <v>1</v>
+      </c>
+      <c r="F305" s="39">
+        <v>1</v>
+      </c>
+      <c r="G305" s="39">
+        <v>1</v>
+      </c>
+      <c r="I305" s="40" t="s">
         <v>919</v>
-      </c>
-      <c r="C305" s="37" t="s">
-        <v>925</v>
-      </c>
-      <c r="D305" s="38" t="s">
-        <v>920</v>
-      </c>
-      <c r="E305" s="39">
-        <v>1</v>
-      </c>
-      <c r="F305" s="39">
-        <v>1</v>
-      </c>
-      <c r="G305" s="39">
-        <v>1</v>
-      </c>
-      <c r="I305" s="40" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12621,13 +12621,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="28" t="s">
+        <v>945</v>
+      </c>
+      <c r="C306" s="26" t="s">
+        <v>951</v>
+      </c>
+      <c r="D306" s="28" t="s">
         <v>947</v>
-      </c>
-      <c r="C306" s="26" t="s">
-        <v>953</v>
-      </c>
-      <c r="D306" s="28" t="s">
-        <v>949</v>
       </c>
       <c r="E306" s="27">
         <v>1</v>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="H306" s="27"/>
       <c r="I306" s="26" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12648,13 +12648,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D307" s="28" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E307" s="27">
         <v>1</v>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="26" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12675,13 +12675,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E308" s="32">
         <v>1</v>
@@ -12702,13 +12702,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12729,13 +12729,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E310" s="17">
         <v>0</v>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12756,25 +12756,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="38" t="s">
+        <v>939</v>
+      </c>
+      <c r="C311" s="37" t="s">
+        <v>940</v>
+      </c>
+      <c r="D311" s="38" t="s">
+        <v>938</v>
+      </c>
+      <c r="E311" s="39">
+        <v>1</v>
+      </c>
+      <c r="F311" s="39">
+        <v>1</v>
+      </c>
+      <c r="G311" s="39">
+        <v>1</v>
+      </c>
+      <c r="I311" s="37" t="s">
         <v>941</v>
-      </c>
-      <c r="C311" s="37" t="s">
-        <v>942</v>
-      </c>
-      <c r="D311" s="38" t="s">
-        <v>940</v>
-      </c>
-      <c r="E311" s="39">
-        <v>1</v>
-      </c>
-      <c r="F311" s="39">
-        <v>1</v>
-      </c>
-      <c r="G311" s="39">
-        <v>1</v>
-      </c>
-      <c r="I311" s="37" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12782,13 +12782,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="C312" s="15" t="s">
-        <v>946</v>
-      </c>
       <c r="D312" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12809,14 +12809,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C313" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>950</v>
       </c>
-      <c r="D313" s="18" t="s">
-        <v>952</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12835,13 +12835,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="D314" s="18" t="s">
         <v>957</v>
-      </c>
-      <c r="C314" s="15" t="s">
-        <v>958</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>959</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12858,25 +12858,25 @@
         <v>314</v>
       </c>
       <c r="B315" s="34" t="s">
+        <v>959</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="D315" s="20" t="s">
+        <v>964</v>
+      </c>
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="9" t="s">
         <v>963</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>966</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12884,13 +12884,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="C316" s="15" t="s">
         <v>962</v>
       </c>
-      <c r="C316" s="15" t="s">
-        <v>964</v>
-      </c>
       <c r="D316" s="34" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12910,13 +12910,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="41" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -12937,13 +12937,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D318" s="42" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -12964,10 +12964,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="27">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="H319" s="27"/>
       <c r="I319" s="26" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -12989,10 +12989,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="28" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C320" s="26" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D320" s="27"/>
       <c r="E320" s="27">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="H320" s="27"/>
       <c r="I320" s="26" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13014,10 +13014,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C321" s="26" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E321" s="27">
         <v>1</v>
@@ -13029,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="31" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13037,10 +13037,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C322" s="26" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E322" s="27">
         <v>1</v>
@@ -13052,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="31" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -13066,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="31" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="990">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3871,9 +3871,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
     <t>12月28日23:59:59</t>
   </si>
   <si>
@@ -3902,10 +3899,6 @@
   </si>
   <si>
     <t>1月4日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4269,25 +4262,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_TY_SJB_STYLE/ACT_001_HHLManager</t>
-  </si>
-  <si>
-    <t>Act_TY_SJB_STYLE/ACT_002_HHLManager</t>
-  </si>
-  <si>
-    <t>Act_TY_BY_DROP_STYLE/ACT_003_HHLManager</t>
-  </si>
-  <si>
-    <t>Act_TY_BY_DROP_STYLE/ACT_004_HHLManager</t>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHL_STYLE/ACT_001_HHLManager</t>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHL_STYLE/ACT_002_HHLManager</t>
-  </si>
-  <si>
     <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4941,7 +4920,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D307" sqref="D307"/>
+      <selection pane="bottomRight" activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11372,13 +11351,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="30" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C254" s="31" t="s">
         <v>742</v>
       </c>
       <c r="D254" s="30" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E254" s="31">
         <v>0</v>
@@ -11454,7 +11433,7 @@
         <v>753</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D257" s="26" t="s">
         <v>754</v>
@@ -11469,7 +11448,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11970,7 +11949,7 @@
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="29" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5">
@@ -12004,7 +11983,7 @@
         <v>826</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D278" s="33" t="s">
         <v>827</v>
@@ -12020,7 +11999,7 @@
       </c>
       <c r="H278" s="15"/>
       <c r="I278" s="15" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12304,7 +12283,7 @@
       </c>
       <c r="H289" s="31"/>
       <c r="I289" s="30" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12652,22 +12631,22 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C303" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="C303" s="15" t="s">
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="I303" s="15" t="s">
         <v>934</v>
-      </c>
-      <c r="E303" s="17">
-        <v>1</v>
-      </c>
-      <c r="F303" s="17">
-        <v>1</v>
-      </c>
-      <c r="G303" s="17">
-        <v>1</v>
-      </c>
-      <c r="I303" s="15" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12705,7 +12684,7 @@
         <v>917</v>
       </c>
       <c r="C305" s="35" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D305" s="36" t="s">
         <v>918</v>
@@ -12728,13 +12707,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="47" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C306" s="48" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D306" s="47" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E306" s="49">
         <v>1</v>
@@ -12747,7 +12726,7 @@
       </c>
       <c r="H306" s="49"/>
       <c r="I306" s="48" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12755,13 +12734,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="47" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C307" s="48" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D307" s="47" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="E307" s="49">
         <v>1</v>
@@ -12774,7 +12753,7 @@
       </c>
       <c r="H307" s="49"/>
       <c r="I307" s="48" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12782,13 +12761,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="47" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C308" s="47" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D308" s="47" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E308" s="49">
         <v>1</v>
@@ -12809,13 +12788,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12828,7 +12807,7 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12836,16 +12815,16 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>929</v>
+        <v>989</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E310" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" s="17">
         <v>1</v>
@@ -12855,7 +12834,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12863,25 +12842,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="C311" s="35" t="s">
+        <v>937</v>
+      </c>
+      <c r="D311" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="E311" s="37">
+        <v>1</v>
+      </c>
+      <c r="F311" s="37">
+        <v>1</v>
+      </c>
+      <c r="G311" s="37">
+        <v>1</v>
+      </c>
+      <c r="I311" s="35" t="s">
         <v>938</v>
-      </c>
-      <c r="C311" s="35" t="s">
-        <v>939</v>
-      </c>
-      <c r="D311" s="36" t="s">
-        <v>937</v>
-      </c>
-      <c r="E311" s="37">
-        <v>1</v>
-      </c>
-      <c r="F311" s="37">
-        <v>1</v>
-      </c>
-      <c r="G311" s="37">
-        <v>1</v>
-      </c>
-      <c r="I311" s="35" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12889,13 +12868,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="C312" s="15" t="s">
-        <v>943</v>
-      </c>
       <c r="D312" s="18" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12908,7 +12887,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12916,14 +12895,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C313" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="D313" s="18" t="s">
-        <v>946</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12934,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12942,13 +12921,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="D314" s="18" t="s">
         <v>951</v>
-      </c>
-      <c r="C314" s="15" t="s">
-        <v>952</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>953</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12965,25 +12944,25 @@
         <v>314</v>
       </c>
       <c r="B315" s="32" t="s">
+        <v>953</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="D315" s="20" t="s">
+        <v>958</v>
+      </c>
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="9" t="s">
         <v>957</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>960</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12991,13 +12970,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="32" t="s">
+        <v>954</v>
+      </c>
+      <c r="C316" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C316" s="15" t="s">
-        <v>958</v>
-      </c>
       <c r="D316" s="32" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -13017,13 +12996,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -13036,7 +13015,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="39" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -13044,13 +13023,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="40" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D318" s="40" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -13063,7 +13042,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13071,10 +13050,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="46" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C319" s="44" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D319" s="45"/>
       <c r="E319" s="45">
@@ -13088,7 +13067,7 @@
       </c>
       <c r="H319" s="45"/>
       <c r="I319" s="44" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13096,10 +13075,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C320" s="44" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D320" s="45"/>
       <c r="E320" s="45">
@@ -13113,7 +13092,7 @@
       </c>
       <c r="H320" s="45"/>
       <c r="I320" s="44" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13121,7 +13100,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="46" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C321" s="45"/>
       <c r="D321" s="45"/>
@@ -13136,7 +13115,7 @@
       </c>
       <c r="H321" s="45"/>
       <c r="I321" s="44" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13144,7 +13123,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="46" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C322" s="45"/>
       <c r="D322" s="45"/>
@@ -13159,7 +13138,7 @@
       </c>
       <c r="H322" s="45"/>
       <c r="I322" s="44" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
@@ -13167,10 +13146,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="46" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C323" s="44" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D323" s="45"/>
       <c r="E323" s="45">
@@ -13184,7 +13163,7 @@
       </c>
       <c r="H323" s="45"/>
       <c r="I323" s="44" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13192,10 +13171,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="46" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C324" s="44" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D324" s="45"/>
       <c r="E324" s="45">
@@ -13209,7 +13188,7 @@
       </c>
       <c r="H324" s="45"/>
       <c r="I324" s="44" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="988">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4259,6 +4259,9 @@
   <si>
     <t>元旦福利（半年）</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
   </si>
 </sst>
 </file>
@@ -4474,7 +4477,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4621,6 +4624,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4899,13 +4905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="K326" sqref="K326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13148,6 +13154,26 @@
       <c r="H323" s="43"/>
       <c r="I323" s="42" t="s">
         <v>967</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="16.5">
+      <c r="A324" s="16">
+        <v>323</v>
+      </c>
+      <c r="B324" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="E324" s="43">
+        <v>1</v>
+      </c>
+      <c r="F324" s="43">
+        <v>1</v>
+      </c>
+      <c r="G324" s="43">
+        <v>1</v>
+      </c>
+      <c r="I324" s="19" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -4334,7 +4334,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4389,6 +4389,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4421,7 +4427,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4550,6 +4556,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4831,10 +4846,10 @@
   <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D254" sqref="D254"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6775,29 +6790,29 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
-      <c r="A75" s="16">
+    <row r="75" spans="1:9" s="44" customFormat="1" ht="16.5">
+      <c r="A75" s="43">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="43" t="s">
         <v>660</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="5">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="E75" s="43">
+        <v>0</v>
+      </c>
+      <c r="F75" s="44">
+        <v>0</v>
+      </c>
+      <c r="G75" s="44">
+        <v>0</v>
+      </c>
+      <c r="I75" s="45" t="s">
         <v>648</v>
       </c>
     </row>
@@ -11274,13 +11289,13 @@
         <v>985</v>
       </c>
       <c r="E254" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254" s="32"/>
       <c r="I254" s="31" t="s">

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="988">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4183,14 +4183,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_001_ygbd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_hhl_style/act_001_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4215,6 +4207,26 @@
   </si>
   <si>
     <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹掉落皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4865,10 +4877,10 @@
   <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C235" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B253" sqref="B253"/>
+      <selection pane="bottomRight" activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12186,7 +12198,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="29" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C288" s="29" t="s">
         <v>862</v>
@@ -12612,7 +12624,7 @@
         <v>938</v>
       </c>
       <c r="D304" s="45" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E304" s="47">
         <v>1</v>
@@ -12639,7 +12651,7 @@
         <v>939</v>
       </c>
       <c r="D305" s="45" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E305" s="47">
         <v>1</v>
@@ -12717,7 +12729,7 @@
         <v>925</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D308" s="18" t="s">
         <v>924</v>
@@ -12949,7 +12961,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="44" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="C317" s="42" t="s">
         <v>961</v>
@@ -12974,7 +12986,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="44" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="C318" s="42" t="s">
         <v>962</v>
@@ -13001,7 +13013,9 @@
       <c r="B319" s="44" t="s">
         <v>971</v>
       </c>
-      <c r="C319" s="43"/>
+      <c r="C319" s="43" t="s">
+        <v>986</v>
+      </c>
       <c r="D319" s="43"/>
       <c r="E319" s="43">
         <v>1</v>
@@ -13024,7 +13038,9 @@
       <c r="B320" s="44" t="s">
         <v>970</v>
       </c>
-      <c r="C320" s="43"/>
+      <c r="C320" s="42" t="s">
+        <v>987</v>
+      </c>
       <c r="D320" s="43"/>
       <c r="E320" s="43">
         <v>1</v>
@@ -13045,7 +13061,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="44" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C321" s="42" t="s">
         <v>964</v>
@@ -13070,7 +13086,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="44" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C322" s="42" t="s">
         <v>965</v>
@@ -13095,9 +13111,11 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>983</v>
-      </c>
-      <c r="C323" s="43"/>
+        <v>981</v>
+      </c>
+      <c r="C323" s="42" t="s">
+        <v>985</v>
+      </c>
       <c r="D323" s="43"/>
       <c r="E323" s="43">
         <v>1</v>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="990">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3874,9 +3874,6 @@
     <t>Act_039_JZSJBManager</t>
   </si>
   <si>
-    <t>Act_039_TYBYDROPManager</t>
-  </si>
-  <si>
     <t>12月28日23:59:59</t>
   </si>
   <si>
@@ -4003,10 +4000,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_039_TY_BY_HHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4177,21 +4170,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_001_ygbd</t>
-  </si>
-  <si>
     <t>阳光榜单</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>爆竹排行榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4208,12 +4190,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_hhl_style/act_001_hhl</t>
-  </si>
-  <si>
-    <t>act_039_ty_by_hhl_style/act_002_hhl</t>
-  </si>
-  <si>
     <t>act_ty_task</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4227,6 +4203,69 @@
   </si>
   <si>
     <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_ygbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4338,7 +4377,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4399,6 +4438,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4431,7 +4482,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4522,16 +4573,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4569,6 +4614,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4847,13 +4913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D308" sqref="D308"/>
+      <selection pane="bottomRight" activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6794,29 +6860,29 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="44" customFormat="1" ht="16.5">
-      <c r="A75" s="43">
+    <row r="75" spans="1:9" s="42" customFormat="1" ht="16.5">
+      <c r="A75" s="41">
         <v>74</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="41" t="s">
         <v>660</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="43">
-        <v>0</v>
-      </c>
-      <c r="F75" s="44">
-        <v>0</v>
-      </c>
-      <c r="G75" s="44">
-        <v>0</v>
-      </c>
-      <c r="I75" s="45" t="s">
+      <c r="E75" s="41">
+        <v>0</v>
+      </c>
+      <c r="F75" s="42">
+        <v>0</v>
+      </c>
+      <c r="G75" s="42">
+        <v>0</v>
+      </c>
+      <c r="I75" s="43" t="s">
         <v>648</v>
       </c>
     </row>
@@ -11283,26 +11349,26 @@
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="31" t="s">
-        <v>983</v>
-      </c>
-      <c r="C254" s="32" t="s">
+      <c r="B254" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C254" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="D254" s="31" t="s">
-        <v>984</v>
-      </c>
-      <c r="E254" s="32">
-        <v>0</v>
-      </c>
-      <c r="F254" s="32">
-        <v>0</v>
-      </c>
-      <c r="G254" s="32">
-        <v>0</v>
-      </c>
-      <c r="H254" s="32"/>
-      <c r="I254" s="31" t="s">
+      <c r="D254" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="E254" s="31">
+        <v>0</v>
+      </c>
+      <c r="F254" s="31">
+        <v>0</v>
+      </c>
+      <c r="G254" s="31">
+        <v>0</v>
+      </c>
+      <c r="H254" s="31"/>
+      <c r="I254" s="30" t="s">
         <v>739</v>
       </c>
     </row>
@@ -11366,7 +11432,7 @@
         <v>753</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D257" s="26" t="s">
         <v>754</v>
@@ -11381,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11882,7 +11948,7 @@
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="29" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5">
@@ -11916,9 +11982,9 @@
         <v>826</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="D278" s="35" t="s">
+        <v>935</v>
+      </c>
+      <c r="D278" s="33" t="s">
         <v>827</v>
       </c>
       <c r="E278" s="15">
@@ -11932,7 +11998,7 @@
       </c>
       <c r="H278" s="15"/>
       <c r="I278" s="15" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12062,55 +12128,55 @@
         <v>842</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A284" s="36">
+    <row r="284" spans="1:9" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A284" s="34">
         <v>283</v>
       </c>
-      <c r="B284" s="38" t="s">
+      <c r="B284" s="36" t="s">
         <v>843</v>
       </c>
-      <c r="C284" s="37" t="s">
+      <c r="C284" s="35" t="s">
         <v>844</v>
       </c>
-      <c r="D284" s="38" t="s">
+      <c r="D284" s="36" t="s">
         <v>845</v>
       </c>
-      <c r="E284" s="39">
-        <v>1</v>
-      </c>
-      <c r="F284" s="39">
-        <v>1</v>
-      </c>
-      <c r="G284" s="39">
-        <v>1</v>
-      </c>
-      <c r="I284" s="40" t="s">
+      <c r="E284" s="37">
+        <v>1</v>
+      </c>
+      <c r="F284" s="37">
+        <v>1</v>
+      </c>
+      <c r="G284" s="37">
+        <v>1</v>
+      </c>
+      <c r="I284" s="38" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A285" s="36">
+    <row r="285" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A285" s="34">
         <v>284</v>
       </c>
-      <c r="B285" s="38" t="s">
+      <c r="B285" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="C285" s="37" t="s">
+      <c r="C285" s="35" t="s">
         <v>852</v>
       </c>
-      <c r="D285" s="38" t="s">
+      <c r="D285" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="E285" s="39">
-        <v>1</v>
-      </c>
-      <c r="F285" s="39">
-        <v>1</v>
-      </c>
-      <c r="G285" s="39">
-        <v>1</v>
-      </c>
-      <c r="I285" s="40" t="s">
+      <c r="E285" s="37">
+        <v>1</v>
+      </c>
+      <c r="F285" s="37">
+        <v>1</v>
+      </c>
+      <c r="G285" s="37">
+        <v>1</v>
+      </c>
+      <c r="I285" s="38" t="s">
         <v>645</v>
       </c>
     </row>
@@ -12140,55 +12206,55 @@
         <v>857</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A287" s="36">
+    <row r="287" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A287" s="34">
         <v>286</v>
       </c>
-      <c r="B287" s="37" t="s">
+      <c r="B287" s="35" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="37" t="s">
+      <c r="C287" s="35" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="38" t="s">
+      <c r="D287" s="36" t="s">
         <v>858</v>
       </c>
-      <c r="E287" s="39">
-        <v>1</v>
-      </c>
-      <c r="F287" s="39">
-        <v>1</v>
-      </c>
-      <c r="G287" s="39">
-        <v>1</v>
-      </c>
-      <c r="I287" s="40" t="s">
+      <c r="E287" s="37">
+        <v>1</v>
+      </c>
+      <c r="F287" s="37">
+        <v>1</v>
+      </c>
+      <c r="G287" s="37">
+        <v>1</v>
+      </c>
+      <c r="I287" s="38" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A288" s="36">
+    <row r="288" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A288" s="34">
         <v>287</v>
       </c>
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="C288" s="35" t="s">
         <v>862</v>
       </c>
-      <c r="D288" s="38" t="s">
+      <c r="D288" s="36" t="s">
         <v>863</v>
       </c>
-      <c r="E288" s="39">
-        <v>1</v>
-      </c>
-      <c r="F288" s="39">
-        <v>1</v>
-      </c>
-      <c r="G288" s="39">
-        <v>1</v>
-      </c>
-      <c r="I288" s="40" t="s">
+      <c r="E288" s="37">
+        <v>1</v>
+      </c>
+      <c r="F288" s="37">
+        <v>1</v>
+      </c>
+      <c r="G288" s="37">
+        <v>1</v>
+      </c>
+      <c r="I288" s="38" t="s">
         <v>864</v>
       </c>
     </row>
@@ -12196,208 +12262,208 @@
       <c r="A289" s="16">
         <v>288</v>
       </c>
-      <c r="B289" s="31" t="s">
+      <c r="B289" s="30" t="s">
         <v>865</v>
       </c>
-      <c r="C289" s="31" t="s">
+      <c r="C289" s="30" t="s">
         <v>866</v>
       </c>
-      <c r="D289" s="31" t="s">
+      <c r="D289" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="E289" s="32">
-        <v>1</v>
-      </c>
-      <c r="F289" s="32">
-        <v>1</v>
-      </c>
-      <c r="G289" s="32">
-        <v>1</v>
-      </c>
-      <c r="H289" s="32"/>
-      <c r="I289" s="31" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A290" s="36">
+      <c r="E289" s="31">
+        <v>1</v>
+      </c>
+      <c r="F289" s="31">
+        <v>1</v>
+      </c>
+      <c r="G289" s="31">
+        <v>1</v>
+      </c>
+      <c r="H289" s="31"/>
+      <c r="I289" s="30" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A290" s="34">
         <v>289</v>
       </c>
-      <c r="B290" s="37" t="s">
+      <c r="B290" s="35" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="37" t="s">
+      <c r="C290" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="38" t="s">
+      <c r="D290" s="36" t="s">
         <v>870</v>
       </c>
-      <c r="E290" s="39">
-        <v>1</v>
-      </c>
-      <c r="F290" s="39">
-        <v>1</v>
-      </c>
-      <c r="G290" s="39">
-        <v>1</v>
-      </c>
-      <c r="I290" s="40" t="s">
+      <c r="E290" s="37">
+        <v>1</v>
+      </c>
+      <c r="F290" s="37">
+        <v>1</v>
+      </c>
+      <c r="G290" s="37">
+        <v>1</v>
+      </c>
+      <c r="I290" s="38" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A291" s="36">
+    <row r="291" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A291" s="34">
         <v>290</v>
       </c>
-      <c r="B291" s="38" t="s">
+      <c r="B291" s="36" t="s">
         <v>872</v>
       </c>
-      <c r="C291" s="37" t="s">
+      <c r="C291" s="35" t="s">
         <v>873</v>
       </c>
-      <c r="D291" s="38" t="s">
+      <c r="D291" s="36" t="s">
         <v>874</v>
       </c>
-      <c r="E291" s="39">
-        <v>1</v>
-      </c>
-      <c r="F291" s="39">
-        <v>1</v>
-      </c>
-      <c r="G291" s="39">
-        <v>1</v>
-      </c>
-      <c r="I291" s="40" t="s">
+      <c r="E291" s="37">
+        <v>1</v>
+      </c>
+      <c r="F291" s="37">
+        <v>1</v>
+      </c>
+      <c r="G291" s="37">
+        <v>1</v>
+      </c>
+      <c r="I291" s="38" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A292" s="36">
+    <row r="292" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A292" s="34">
         <v>291</v>
       </c>
-      <c r="B292" s="38" t="s">
+      <c r="B292" s="36" t="s">
         <v>876</v>
       </c>
-      <c r="C292" s="37" t="s">
+      <c r="C292" s="35" t="s">
         <v>877</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="D292" s="36" t="s">
         <v>878</v>
       </c>
-      <c r="E292" s="39">
-        <v>1</v>
-      </c>
-      <c r="F292" s="39">
-        <v>1</v>
-      </c>
-      <c r="G292" s="39">
-        <v>1</v>
-      </c>
-      <c r="I292" s="40" t="s">
+      <c r="E292" s="37">
+        <v>1</v>
+      </c>
+      <c r="F292" s="37">
+        <v>1</v>
+      </c>
+      <c r="G292" s="37">
+        <v>1</v>
+      </c>
+      <c r="I292" s="38" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A293" s="36">
+    <row r="293" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A293" s="34">
         <v>292</v>
       </c>
-      <c r="B293" s="38" t="s">
+      <c r="B293" s="36" t="s">
         <v>879</v>
       </c>
-      <c r="C293" s="37" t="s">
+      <c r="C293" s="35" t="s">
         <v>884</v>
       </c>
-      <c r="D293" s="38" t="s">
+      <c r="D293" s="36" t="s">
         <v>881</v>
       </c>
-      <c r="E293" s="39">
-        <v>1</v>
-      </c>
-      <c r="F293" s="39">
-        <v>1</v>
-      </c>
-      <c r="G293" s="39">
-        <v>1</v>
-      </c>
-      <c r="I293" s="40" t="s">
+      <c r="E293" s="37">
+        <v>1</v>
+      </c>
+      <c r="F293" s="37">
+        <v>1</v>
+      </c>
+      <c r="G293" s="37">
+        <v>1</v>
+      </c>
+      <c r="I293" s="38" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A294" s="36">
+    <row r="294" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A294" s="34">
         <v>293</v>
       </c>
-      <c r="B294" s="38" t="s">
+      <c r="B294" s="36" t="s">
         <v>880</v>
       </c>
-      <c r="C294" s="37" t="s">
+      <c r="C294" s="35" t="s">
         <v>885</v>
       </c>
-      <c r="D294" s="38" t="s">
+      <c r="D294" s="36" t="s">
         <v>882</v>
       </c>
-      <c r="E294" s="39">
-        <v>1</v>
-      </c>
-      <c r="F294" s="39">
-        <v>1</v>
-      </c>
-      <c r="G294" s="39">
-        <v>1</v>
-      </c>
-      <c r="I294" s="40" t="s">
+      <c r="E294" s="37">
+        <v>1</v>
+      </c>
+      <c r="F294" s="37">
+        <v>1</v>
+      </c>
+      <c r="G294" s="37">
+        <v>1</v>
+      </c>
+      <c r="I294" s="38" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A295" s="36">
+    <row r="295" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A295" s="34">
         <v>294</v>
       </c>
-      <c r="B295" s="38" t="s">
+      <c r="B295" s="36" t="s">
         <v>886</v>
       </c>
-      <c r="C295" s="37" t="s">
+      <c r="C295" s="35" t="s">
         <v>887</v>
       </c>
-      <c r="D295" s="38" t="s">
+      <c r="D295" s="36" t="s">
         <v>888</v>
       </c>
-      <c r="E295" s="39">
-        <v>1</v>
-      </c>
-      <c r="F295" s="39">
-        <v>1</v>
-      </c>
-      <c r="G295" s="39">
-        <v>1</v>
-      </c>
-      <c r="I295" s="40" t="s">
+      <c r="E295" s="37">
+        <v>1</v>
+      </c>
+      <c r="F295" s="37">
+        <v>1</v>
+      </c>
+      <c r="G295" s="37">
+        <v>1</v>
+      </c>
+      <c r="I295" s="38" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="296" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A296" s="36">
+    <row r="296" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A296" s="34">
         <v>295</v>
       </c>
-      <c r="B296" s="38" t="s">
+      <c r="B296" s="36" t="s">
         <v>889</v>
       </c>
-      <c r="C296" s="37" t="s">
+      <c r="C296" s="35" t="s">
         <v>890</v>
       </c>
-      <c r="D296" s="38" t="s">
+      <c r="D296" s="36" t="s">
         <v>891</v>
       </c>
-      <c r="E296" s="39">
-        <v>1</v>
-      </c>
-      <c r="F296" s="39">
-        <v>1</v>
-      </c>
-      <c r="G296" s="39">
-        <v>1</v>
-      </c>
-      <c r="I296" s="40" t="s">
+      <c r="E296" s="37">
+        <v>1</v>
+      </c>
+      <c r="F296" s="37">
+        <v>1</v>
+      </c>
+      <c r="G296" s="37">
+        <v>1</v>
+      </c>
+      <c r="I296" s="38" t="s">
         <v>645</v>
       </c>
     </row>
@@ -12479,29 +12545,29 @@
         <v>906</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A300" s="36">
+    <row r="300" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="38" t="s">
+      <c r="B300" s="36" t="s">
         <v>901</v>
       </c>
-      <c r="C300" s="37" t="s">
+      <c r="C300" s="35" t="s">
         <v>902</v>
       </c>
-      <c r="D300" s="38" t="s">
+      <c r="D300" s="36" t="s">
         <v>903</v>
       </c>
-      <c r="E300" s="39">
-        <v>1</v>
-      </c>
-      <c r="F300" s="39">
-        <v>1</v>
-      </c>
-      <c r="G300" s="39">
-        <v>1</v>
-      </c>
-      <c r="I300" s="40" t="s">
+      <c r="E300" s="37">
+        <v>1</v>
+      </c>
+      <c r="F300" s="37">
+        <v>1</v>
+      </c>
+      <c r="G300" s="37">
+        <v>1</v>
+      </c>
+      <c r="I300" s="38" t="s">
         <v>904</v>
       </c>
     </row>
@@ -12564,10 +12630,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12579,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12609,29 +12675,29 @@
         <v>910</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A305" s="36">
+    <row r="305" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="38" t="s">
+      <c r="B305" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="C305" s="37" t="s">
-        <v>923</v>
-      </c>
-      <c r="D305" s="38" t="s">
+      <c r="C305" s="35" t="s">
+        <v>922</v>
+      </c>
+      <c r="D305" s="36" t="s">
         <v>918</v>
       </c>
-      <c r="E305" s="39">
-        <v>1</v>
-      </c>
-      <c r="F305" s="39">
-        <v>1</v>
-      </c>
-      <c r="G305" s="39">
-        <v>1</v>
-      </c>
-      <c r="I305" s="40" t="s">
+      <c r="E305" s="37">
+        <v>1</v>
+      </c>
+      <c r="F305" s="37">
+        <v>1</v>
+      </c>
+      <c r="G305" s="37">
+        <v>1</v>
+      </c>
+      <c r="I305" s="38" t="s">
         <v>919</v>
       </c>
     </row>
@@ -12639,80 +12705,80 @@
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="28" t="s">
-        <v>945</v>
-      </c>
-      <c r="C306" s="26" t="s">
+      <c r="B306" s="47" t="s">
+        <v>984</v>
+      </c>
+      <c r="C306" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="D306" s="47" t="s">
+        <v>944</v>
+      </c>
+      <c r="E306" s="49">
+        <v>1</v>
+      </c>
+      <c r="F306" s="49">
+        <v>1</v>
+      </c>
+      <c r="G306" s="49">
+        <v>1</v>
+      </c>
+      <c r="H306" s="49"/>
+      <c r="I306" s="48" t="s">
         <v>950</v>
-      </c>
-      <c r="D306" s="28" t="s">
-        <v>946</v>
-      </c>
-      <c r="E306" s="27">
-        <v>1</v>
-      </c>
-      <c r="F306" s="27">
-        <v>1</v>
-      </c>
-      <c r="G306" s="27">
-        <v>1</v>
-      </c>
-      <c r="H306" s="27"/>
-      <c r="I306" s="26" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="28" t="s">
-        <v>973</v>
-      </c>
-      <c r="C307" s="26" t="s">
-        <v>951</v>
-      </c>
-      <c r="D307" s="28" t="s">
+      <c r="B307" s="47" t="s">
+        <v>985</v>
+      </c>
+      <c r="C307" s="48" t="s">
+        <v>949</v>
+      </c>
+      <c r="D307" s="47" t="s">
         <v>920</v>
       </c>
-      <c r="E307" s="27">
-        <v>1</v>
-      </c>
-      <c r="F307" s="27">
-        <v>1</v>
-      </c>
-      <c r="G307" s="27">
-        <v>1</v>
-      </c>
-      <c r="H307" s="27"/>
-      <c r="I307" s="26" t="s">
-        <v>952</v>
+      <c r="E307" s="49">
+        <v>1</v>
+      </c>
+      <c r="F307" s="49">
+        <v>1</v>
+      </c>
+      <c r="G307" s="49">
+        <v>1</v>
+      </c>
+      <c r="H307" s="49"/>
+      <c r="I307" s="48" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="30" t="s">
-        <v>985</v>
-      </c>
-      <c r="C308" s="30" t="s">
-        <v>957</v>
-      </c>
-      <c r="D308" s="30" t="s">
-        <v>986</v>
-      </c>
-      <c r="E308" s="32">
-        <v>1</v>
-      </c>
-      <c r="F308" s="32">
-        <v>1</v>
-      </c>
-      <c r="G308" s="32">
-        <v>1</v>
-      </c>
-      <c r="H308" s="32"/>
-      <c r="I308" s="33" t="s">
+      <c r="B308" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="C308" s="47" t="s">
+        <v>955</v>
+      </c>
+      <c r="D308" s="47" t="s">
+        <v>979</v>
+      </c>
+      <c r="E308" s="49">
+        <v>1</v>
+      </c>
+      <c r="F308" s="49">
+        <v>1</v>
+      </c>
+      <c r="G308" s="49">
+        <v>1</v>
+      </c>
+      <c r="H308" s="49"/>
+      <c r="I308" s="50" t="s">
         <v>645</v>
       </c>
     </row>
@@ -12721,13 +12787,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12740,7 +12806,7 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12748,13 +12814,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C310" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>930</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>931</v>
       </c>
       <c r="E310" s="17">
         <v>0</v>
@@ -12767,33 +12833,33 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="37" customFormat="1" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="38" t="s">
+      <c r="B311" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="C311" s="35" t="s">
         <v>939</v>
       </c>
-      <c r="C311" s="37" t="s">
+      <c r="D311" s="36" t="s">
+        <v>937</v>
+      </c>
+      <c r="E311" s="37">
+        <v>1</v>
+      </c>
+      <c r="F311" s="37">
+        <v>1</v>
+      </c>
+      <c r="G311" s="37">
+        <v>1</v>
+      </c>
+      <c r="I311" s="35" t="s">
         <v>940</v>
-      </c>
-      <c r="D311" s="38" t="s">
-        <v>938</v>
-      </c>
-      <c r="E311" s="39">
-        <v>1</v>
-      </c>
-      <c r="F311" s="39">
-        <v>1</v>
-      </c>
-      <c r="G311" s="39">
-        <v>1</v>
-      </c>
-      <c r="I311" s="37" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12801,13 +12867,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>943</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>942</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>944</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>943</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12820,7 +12886,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12828,14 +12894,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C313" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="D313" s="18" t="s">
-        <v>949</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12846,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12854,13 +12920,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D314" s="18" t="s">
         <v>954</v>
-      </c>
-      <c r="C314" s="15" t="s">
-        <v>955</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>956</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12876,40 +12942,40 @@
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="34" t="s">
+      <c r="B315" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="D315" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="9" t="s">
         <v>960</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="34" t="s">
+      <c r="B316" s="32" t="s">
+        <v>957</v>
+      </c>
+      <c r="C316" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="C316" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="D316" s="34" t="s">
-        <v>967</v>
+      <c r="D316" s="32" t="s">
+        <v>965</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12929,40 +12995,40 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D317" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="E317" s="27">
+        <v>1</v>
+      </c>
+      <c r="F317" s="27">
+        <v>1</v>
+      </c>
+      <c r="G317" s="27">
+        <v>1</v>
+      </c>
+      <c r="H317" s="27"/>
+      <c r="I317" s="39" t="s">
         <v>964</v>
-      </c>
-      <c r="E317" s="27">
-        <v>1</v>
-      </c>
-      <c r="F317" s="27">
-        <v>1</v>
-      </c>
-      <c r="G317" s="27">
-        <v>1</v>
-      </c>
-      <c r="H317" s="27"/>
-      <c r="I317" s="41" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="42" t="s">
-        <v>972</v>
+      <c r="B318" s="40" t="s">
+        <v>970</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>969</v>
-      </c>
-      <c r="D318" s="42" t="s">
-        <v>968</v>
+        <v>967</v>
+      </c>
+      <c r="D318" s="40" t="s">
+        <v>966</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -12975,117 +13041,153 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="28" t="s">
-        <v>974</v>
-      </c>
-      <c r="C319" s="26" t="s">
-        <v>975</v>
-      </c>
-      <c r="D319" s="27"/>
-      <c r="E319" s="27">
-        <v>1</v>
-      </c>
-      <c r="F319" s="27">
-        <v>1</v>
-      </c>
-      <c r="G319" s="27">
-        <v>1</v>
-      </c>
-      <c r="H319" s="27"/>
-      <c r="I319" s="26" t="s">
-        <v>970</v>
+      <c r="B319" s="46" t="s">
+        <v>986</v>
+      </c>
+      <c r="C319" s="44" t="s">
+        <v>971</v>
+      </c>
+      <c r="D319" s="45"/>
+      <c r="E319" s="45">
+        <v>1</v>
+      </c>
+      <c r="F319" s="45">
+        <v>1</v>
+      </c>
+      <c r="G319" s="45">
+        <v>1</v>
+      </c>
+      <c r="H319" s="45"/>
+      <c r="I319" s="44" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="28" t="s">
-        <v>976</v>
-      </c>
-      <c r="C320" s="26" t="s">
-        <v>977</v>
-      </c>
-      <c r="D320" s="27"/>
-      <c r="E320" s="27">
-        <v>1</v>
-      </c>
-      <c r="F320" s="27">
-        <v>1</v>
-      </c>
-      <c r="G320" s="27">
-        <v>1</v>
-      </c>
-      <c r="H320" s="27"/>
-      <c r="I320" s="26" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" ht="16.5">
+      <c r="B320" s="46" t="s">
+        <v>987</v>
+      </c>
+      <c r="C320" s="44" t="s">
+        <v>972</v>
+      </c>
+      <c r="D320" s="45"/>
+      <c r="E320" s="45">
+        <v>1</v>
+      </c>
+      <c r="F320" s="45">
+        <v>1</v>
+      </c>
+      <c r="G320" s="45">
+        <v>1</v>
+      </c>
+      <c r="H320" s="45"/>
+      <c r="I320" s="44" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="20" t="s">
+      <c r="B321" s="46" t="s">
         <v>981</v>
       </c>
-      <c r="C321" s="26" t="s">
-        <v>979</v>
-      </c>
-      <c r="E321" s="27">
-        <v>1</v>
-      </c>
-      <c r="F321" s="27">
-        <v>1</v>
-      </c>
-      <c r="G321" s="27">
-        <v>1</v>
-      </c>
-      <c r="I321" s="31" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" ht="16.5">
+      <c r="C321" s="45"/>
+      <c r="D321" s="45"/>
+      <c r="E321" s="45">
+        <v>1</v>
+      </c>
+      <c r="F321" s="45">
+        <v>1</v>
+      </c>
+      <c r="G321" s="45">
+        <v>1</v>
+      </c>
+      <c r="H321" s="45"/>
+      <c r="I321" s="44" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="C322" s="26" t="s">
+      <c r="B322" s="46" t="s">
         <v>980</v>
       </c>
-      <c r="E322" s="27">
-        <v>1</v>
-      </c>
-      <c r="F322" s="27">
-        <v>1</v>
-      </c>
-      <c r="G322" s="27">
-        <v>1</v>
-      </c>
-      <c r="I322" s="31" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
-      <c r="E323" s="27">
-        <v>1</v>
-      </c>
-      <c r="F323" s="27">
-        <v>1</v>
-      </c>
-      <c r="G323" s="27">
-        <v>1</v>
-      </c>
-      <c r="I323" s="31" t="s">
-        <v>978</v>
+      <c r="C322" s="45"/>
+      <c r="D322" s="45"/>
+      <c r="E322" s="45">
+        <v>1</v>
+      </c>
+      <c r="F322" s="45">
+        <v>1</v>
+      </c>
+      <c r="G322" s="45">
+        <v>1</v>
+      </c>
+      <c r="H322" s="45"/>
+      <c r="I322" s="44" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="16.5">
+      <c r="A323" s="16">
+        <v>322</v>
+      </c>
+      <c r="B323" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="C323" s="44" t="s">
+        <v>974</v>
+      </c>
+      <c r="D323" s="45"/>
+      <c r="E323" s="45">
+        <v>1</v>
+      </c>
+      <c r="F323" s="45">
+        <v>1</v>
+      </c>
+      <c r="G323" s="45">
+        <v>1</v>
+      </c>
+      <c r="H323" s="45"/>
+      <c r="I323" s="44" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="16.5">
+      <c r="A324" s="16">
+        <v>323</v>
+      </c>
+      <c r="B324" s="46" t="s">
+        <v>989</v>
+      </c>
+      <c r="C324" s="44" t="s">
+        <v>975</v>
+      </c>
+      <c r="D324" s="45"/>
+      <c r="E324" s="45">
+        <v>1</v>
+      </c>
+      <c r="F324" s="45">
+        <v>1</v>
+      </c>
+      <c r="G324" s="45">
+        <v>1</v>
+      </c>
+      <c r="H324" s="45"/>
+      <c r="I324" s="44" t="s">
+        <v>973</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="987">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4007,10 +4007,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_drop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_039_TY_BY_HHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4223,6 +4219,14 @@
   </si>
   <si>
     <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4846,10 +4850,10 @@
   <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11280,13 +11284,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C254" s="32" t="s">
         <v>742</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E254" s="32">
         <v>0</v>
@@ -12212,7 +12216,7 @@
       </c>
       <c r="H289" s="32"/>
       <c r="I289" s="31" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12639,10 +12643,10 @@
         <v>945</v>
       </c>
       <c r="C306" s="26" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D306" s="28" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E306" s="27">
         <v>1</v>
@@ -12655,7 +12659,7 @@
       </c>
       <c r="H306" s="27"/>
       <c r="I306" s="26" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12663,10 +12667,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D307" s="28" t="s">
         <v>920</v>
@@ -12682,7 +12686,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="26" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12690,13 +12694,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>946</v>
+        <v>985</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>921</v>
+        <v>986</v>
       </c>
       <c r="E308" s="32">
         <v>1</v>
@@ -12816,7 +12820,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12824,14 +12828,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="C313" s="15" t="s">
-        <v>948</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>950</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12842,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12850,13 +12854,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="D314" s="18" t="s">
         <v>956</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>957</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12873,13 +12877,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12891,7 +12895,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12899,13 +12903,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12925,13 +12929,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -12944,7 +12948,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="41" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -12952,13 +12956,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D318" s="42" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -12971,7 +12975,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -12979,10 +12983,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="28" t="s">
+        <v>974</v>
+      </c>
+      <c r="C319" s="26" t="s">
         <v>975</v>
-      </c>
-      <c r="C319" s="26" t="s">
-        <v>976</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="27">
@@ -12996,7 +13000,7 @@
       </c>
       <c r="H319" s="27"/>
       <c r="I319" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13004,10 +13008,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="28" t="s">
+        <v>976</v>
+      </c>
+      <c r="C320" s="26" t="s">
         <v>977</v>
-      </c>
-      <c r="C320" s="26" t="s">
-        <v>978</v>
       </c>
       <c r="D320" s="27"/>
       <c r="E320" s="27">
@@ -13021,7 +13025,7 @@
       </c>
       <c r="H320" s="27"/>
       <c r="I320" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13029,10 +13033,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C321" s="26" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E321" s="27">
         <v>1</v>
@@ -13044,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="31" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13052,10 +13056,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C322" s="26" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E322" s="27">
         <v>1</v>
@@ -13067,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="31" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -13081,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="31" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="997">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4000,10 +4000,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_039_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动--礼包模板（感恩礼包）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4266,6 +4262,32 @@
   </si>
   <si>
     <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_SJB_STYLE/ACT_001_HHLManager</t>
+  </si>
+  <si>
+    <t>Act_TY_SJB_STYLE/ACT_002_HHLManager</t>
+  </si>
+  <si>
+    <t>Act_TY_BY_DROP_STYLE/ACT_003_HHLManager</t>
+  </si>
+  <si>
+    <t>Act_TY_BY_DROP_STYLE/ACT_004_HHLManager</t>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHL_STYLE/ACT_001_HHLManager</t>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHL_STYLE/ACT_002_HHLManager</t>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4919,7 +4941,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B322" sqref="B322"/>
+      <selection pane="bottomRight" activeCell="D307" sqref="D307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11350,13 +11372,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="30" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C254" s="31" t="s">
         <v>742</v>
       </c>
       <c r="D254" s="30" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E254" s="31">
         <v>0</v>
@@ -12282,7 +12304,7 @@
       </c>
       <c r="H289" s="31"/>
       <c r="I289" s="30" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12706,13 +12728,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="47" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C306" s="48" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D306" s="47" t="s">
-        <v>944</v>
+        <v>989</v>
       </c>
       <c r="E306" s="49">
         <v>1</v>
@@ -12725,7 +12747,7 @@
       </c>
       <c r="H306" s="49"/>
       <c r="I306" s="48" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12733,13 +12755,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="47" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C307" s="48" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D307" s="47" t="s">
-        <v>920</v>
+        <v>996</v>
       </c>
       <c r="E307" s="49">
         <v>1</v>
@@ -12752,7 +12774,7 @@
       </c>
       <c r="H307" s="49"/>
       <c r="I307" s="48" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12760,13 +12782,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="47" t="s">
+        <v>977</v>
+      </c>
+      <c r="C308" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="D308" s="47" t="s">
         <v>978</v>
-      </c>
-      <c r="C308" s="47" t="s">
-        <v>955</v>
-      </c>
-      <c r="D308" s="47" t="s">
-        <v>979</v>
       </c>
       <c r="E308" s="49">
         <v>1</v>
@@ -12886,7 +12908,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12894,14 +12916,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="C313" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>947</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12912,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12920,13 +12942,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="D314" s="18" t="s">
         <v>953</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>954</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12943,13 +12965,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="32" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12961,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12969,13 +12991,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="32" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D316" s="32" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12995,13 +13017,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -13014,7 +13036,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="39" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -13022,13 +13044,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="40" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D318" s="40" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -13041,7 +13063,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13049,10 +13071,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="46" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C319" s="44" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D319" s="45"/>
       <c r="E319" s="45">
@@ -13066,7 +13088,7 @@
       </c>
       <c r="H319" s="45"/>
       <c r="I319" s="44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13074,10 +13096,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C320" s="44" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D320" s="45"/>
       <c r="E320" s="45">
@@ -13091,7 +13113,7 @@
       </c>
       <c r="H320" s="45"/>
       <c r="I320" s="44" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13099,7 +13121,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C321" s="45"/>
       <c r="D321" s="45"/>
@@ -13114,7 +13136,7 @@
       </c>
       <c r="H321" s="45"/>
       <c r="I321" s="44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13122,7 +13144,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C322" s="45"/>
       <c r="D322" s="45"/>
@@ -13137,7 +13159,7 @@
       </c>
       <c r="H322" s="45"/>
       <c r="I322" s="44" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
@@ -13145,10 +13167,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="46" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C323" s="44" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D323" s="45"/>
       <c r="E323" s="45">
@@ -13162,7 +13184,7 @@
       </c>
       <c r="H323" s="45"/>
       <c r="I323" s="44" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13170,10 +13192,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="46" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C324" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D324" s="45"/>
       <c r="E324" s="45">
@@ -13187,7 +13209,7 @@
       </c>
       <c r="H324" s="45"/>
       <c r="I324" s="44" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="987">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -647,15 +647,6 @@
   </si>
   <si>
     <t>SYSXYManager</t>
-  </si>
-  <si>
-    <t>hall_activity</t>
-  </si>
-  <si>
-    <t>系统：大厅活动</t>
-  </si>
-  <si>
-    <t>GameActivityManager</t>
   </si>
   <si>
     <t>sys_act_base</t>
@@ -4483,7 +4474,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4559,9 +4550,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4584,9 +4572,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4914,13 +4899,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I324"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C310" sqref="C310"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4950,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4962,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4988,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -5014,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -5040,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -5066,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -5092,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -5118,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5144,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5170,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5196,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5222,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5248,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5274,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5300,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5326,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5352,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5378,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5404,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5430,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5456,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5482,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5508,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5534,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5560,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5586,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5612,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5623,7 +5608,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5638,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5664,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5690,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5716,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5742,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5768,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5794,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5820,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5846,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5872,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5898,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5924,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5950,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5976,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -6002,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -6028,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -6054,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -6080,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -6106,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6132,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6158,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6184,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6195,7 +6180,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6210,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6236,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6262,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6286,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6312,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6320,7 +6305,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6338,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6346,7 +6331,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6364,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6390,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6416,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6442,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6468,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -6494,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6520,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6546,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6572,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6598,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6624,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6650,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6667,16 +6652,16 @@
         <v>199</v>
       </c>
       <c r="E67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6702,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6719,16 +6704,16 @@
         <v>205</v>
       </c>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6754,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6780,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6806,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6832,59 +6817,59 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="40" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="C74" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="39">
+        <v>0</v>
+      </c>
+      <c r="F74" s="40">
+        <v>0</v>
+      </c>
+      <c r="G74" s="40">
+        <v>0</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5">
+      <c r="A75" s="16">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="42" customFormat="1" ht="16.5">
-      <c r="A75" s="41">
-        <v>74</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="41">
-        <v>0</v>
-      </c>
-      <c r="F75" s="42">
-        <v>0</v>
-      </c>
-      <c r="G75" s="42">
-        <v>0</v>
-      </c>
-      <c r="I75" s="43" t="s">
-        <v>648</v>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
@@ -6901,16 +6886,16 @@
         <v>225</v>
       </c>
       <c r="E76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -6935,8 +6920,8 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="12" t="s">
-        <v>652</v>
+      <c r="I77" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6953,16 +6938,16 @@
         <v>231</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6979,15 +6964,15 @@
         <v>234</v>
       </c>
       <c r="E79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -7014,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -7040,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -7066,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -7092,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -7118,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7135,16 +7120,16 @@
         <v>252</v>
       </c>
       <c r="E85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7170,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7196,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7222,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7239,16 +7224,16 @@
         <v>264</v>
       </c>
       <c r="E89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7265,16 +7250,16 @@
         <v>267</v>
       </c>
       <c r="E90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7291,16 +7276,16 @@
         <v>270</v>
       </c>
       <c r="E91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7317,16 +7302,16 @@
         <v>273</v>
       </c>
       <c r="E92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7343,16 +7328,16 @@
         <v>276</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7377,8 +7362,8 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>646</v>
+      <c r="I94" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7404,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7430,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7456,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7482,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7508,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7525,16 +7510,16 @@
         <v>297</v>
       </c>
       <c r="E100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>651</v>
+        <v>1</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7551,16 +7536,16 @@
         <v>300</v>
       </c>
       <c r="E101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7585,8 +7570,8 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>682</v>
+      <c r="I102" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7603,16 +7588,16 @@
         <v>306</v>
       </c>
       <c r="E103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7629,15 +7614,15 @@
         <v>309</v>
       </c>
       <c r="E104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="I104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -7663,8 +7648,8 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>649</v>
+      <c r="I105" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7689,8 +7674,8 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="12" t="s">
-        <v>646</v>
+      <c r="I106" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7716,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7768,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7794,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7820,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7846,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7872,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7898,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7924,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7976,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -8002,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -8028,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -8054,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -8080,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -8106,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8132,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8158,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8184,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8201,16 +8186,16 @@
         <v>375</v>
       </c>
       <c r="E126" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8227,15 +8212,15 @@
         <v>378</v>
       </c>
       <c r="E127" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="I127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -8262,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8288,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8314,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8340,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8366,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8418,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8444,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8470,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8496,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8522,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8548,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8574,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8600,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8617,16 +8602,16 @@
         <v>423</v>
       </c>
       <c r="E142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8637,22 +8622,22 @@
         <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="E143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8660,25 +8645,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8686,25 +8671,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="E145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8712,10 +8697,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>653</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>432</v>
@@ -8730,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8755,8 +8740,8 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="12" t="s">
-        <v>696</v>
+      <c r="I147" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8782,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8808,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8834,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8859,8 +8844,8 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="I151" s="11" t="s">
-        <v>648</v>
+      <c r="I151" s="12" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8885,8 +8870,8 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="I152" s="12" t="s">
-        <v>853</v>
+      <c r="I152" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8912,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8938,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8964,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8974,12 +8959,12 @@
       <c r="B156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8990,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -8998,14 +8983,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -9015,8 +9000,8 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="11" t="s">
-        <v>649</v>
+      <c r="I157" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -9024,10 +9009,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>654</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>466</v>
@@ -9041,8 +9026,8 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="12" t="s">
-        <v>646</v>
+      <c r="I158" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -9068,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -9094,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -9120,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9137,16 +9122,16 @@
         <v>478</v>
       </c>
       <c r="E162" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9163,16 +9148,16 @@
         <v>481</v>
       </c>
       <c r="E163" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>697</v>
+        <v>0</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9186,19 +9171,19 @@
         <v>483</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>484</v>
+        <v>614</v>
       </c>
       <c r="E164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9206,25 +9191,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>617</v>
-      </c>
       <c r="E165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9234,23 +9219,23 @@
       <c r="B166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E166" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9258,25 +9243,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>640</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E167" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>647</v>
+        <v>0</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9302,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9315,9 +9300,7 @@
       <c r="C169" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>497</v>
-      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -9327,8 +9310,8 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="11" t="s">
-        <v>648</v>
+      <c r="I169" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9336,23 +9319,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9360,10 +9343,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9376,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9384,10 +9367,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>503</v>
+        <v>658</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>659</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9400,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9408,22 +9391,24 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="D173" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="E173" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="I173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -9437,9 +9422,7 @@
       <c r="C174" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -9450,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9458,23 +9441,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9482,23 +9465,23 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9506,23 +9489,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D177" s="5"/>
       <c r="E177" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9548,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9561,44 +9546,42 @@
       <c r="C179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="I179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="11" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5">
+    <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A180" s="16">
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2">
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9606,10 +9589,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9622,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9630,10 +9613,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9646,31 +9629,30 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="16">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" t="s">
         <v>525</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>0</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0</v>
-      </c>
-      <c r="G183" s="2">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9678,11 +9660,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
         <v>527</v>
       </c>
-      <c r="C184" t="s">
-        <v>528</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9693,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9701,11 +9683,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" t="s">
         <v>529</v>
       </c>
-      <c r="C185" t="s">
-        <v>530</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9716,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9724,11 +9706,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>530</v>
+      </c>
+      <c r="C186" t="s">
         <v>531</v>
       </c>
-      <c r="C186" t="s">
-        <v>532</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9739,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9747,11 +9729,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" t="s">
         <v>533</v>
       </c>
-      <c r="C187" t="s">
-        <v>534</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9762,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9770,11 +9752,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>534</v>
+      </c>
+      <c r="C188" t="s">
         <v>535</v>
       </c>
-      <c r="C188" t="s">
-        <v>536</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9785,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9793,11 +9775,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" t="s">
         <v>537</v>
       </c>
-      <c r="C189" t="s">
-        <v>538</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9808,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9816,11 +9798,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" t="s">
         <v>539</v>
       </c>
-      <c r="C190" t="s">
-        <v>540</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9831,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9839,11 +9821,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" t="s">
         <v>541</v>
       </c>
-      <c r="C191" t="s">
-        <v>542</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9854,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9862,11 +9844,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>542</v>
+      </c>
+      <c r="C192" t="s">
         <v>543</v>
       </c>
-      <c r="C192" t="s">
-        <v>544</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9877,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9885,11 +9867,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>544</v>
+      </c>
+      <c r="C193" t="s">
         <v>545</v>
       </c>
-      <c r="C193" t="s">
-        <v>546</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9900,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9908,11 +9890,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" t="s">
         <v>547</v>
       </c>
-      <c r="C194" t="s">
-        <v>548</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9923,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9931,11 +9913,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" t="s">
         <v>549</v>
       </c>
-      <c r="C195" t="s">
-        <v>550</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9946,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9954,10 +9936,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" t="s">
         <v>551</v>
-      </c>
-      <c r="C196" t="s">
-        <v>552</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -9977,11 +9959,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" t="s">
         <v>553</v>
       </c>
-      <c r="C197" t="s">
-        <v>554</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9992,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -10000,11 +9982,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>554</v>
+      </c>
+      <c r="C198" t="s">
         <v>555</v>
       </c>
-      <c r="C198" t="s">
-        <v>556</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -10015,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -10023,11 +10005,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" t="s">
         <v>557</v>
       </c>
-      <c r="C199" t="s">
-        <v>558</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -10038,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -10046,11 +10028,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" t="s">
         <v>559</v>
       </c>
-      <c r="C200" t="s">
-        <v>560</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -10061,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -10069,11 +10051,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" t="s">
         <v>561</v>
       </c>
-      <c r="C201" t="s">
-        <v>562</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -10084,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -10092,11 +10074,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" t="s">
         <v>563</v>
       </c>
-      <c r="C202" t="s">
-        <v>564</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -10107,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -10115,11 +10097,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" t="s">
         <v>565</v>
       </c>
-      <c r="C203" t="s">
-        <v>566</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -10130,30 +10112,33 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="16">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>567</v>
+      <c r="B204" s="9" t="s">
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>566</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="I204" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10161,14 +10146,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C205" t="s">
+        <v>567</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C205" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10179,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10187,14 +10172,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>568</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C206" t="s">
-        <v>570</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10205,32 +10190,29 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="16">
         <v>206</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>615</v>
+      <c r="B207" t="s">
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>571</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="I207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -10239,11 +10221,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="C208" t="s">
-        <v>573</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10254,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10262,11 +10244,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>573</v>
+      </c>
+      <c r="C209" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
-        <v>575</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10277,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10285,11 +10267,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>575</v>
+      </c>
+      <c r="C210" t="s">
         <v>576</v>
       </c>
-      <c r="C210" t="s">
-        <v>577</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10300,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10308,22 +10290,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
         <v>578</v>
       </c>
-      <c r="C211" t="s">
-        <v>579</v>
-      </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="I211" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10331,22 +10313,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" t="s">
         <v>580</v>
       </c>
-      <c r="C212" t="s">
-        <v>581</v>
-      </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="I212" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10354,11 +10336,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" t="s">
         <v>582</v>
       </c>
-      <c r="C213" t="s">
-        <v>583</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10369,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10377,11 +10359,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>583</v>
+      </c>
+      <c r="C214" t="s">
         <v>584</v>
       </c>
-      <c r="C214" t="s">
-        <v>585</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10392,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10400,11 +10382,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>585</v>
+      </c>
+      <c r="C215" t="s">
         <v>586</v>
       </c>
-      <c r="C215" t="s">
-        <v>587</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10415,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10423,11 +10405,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>587</v>
+      </c>
+      <c r="C216" t="s">
         <v>588</v>
       </c>
-      <c r="C216" t="s">
-        <v>589</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10438,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10446,10 +10428,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>589</v>
+      </c>
+      <c r="C217" t="s">
         <v>590</v>
-      </c>
-      <c r="C217" t="s">
-        <v>591</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10469,11 +10451,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>591</v>
+      </c>
+      <c r="C218" t="s">
         <v>592</v>
       </c>
-      <c r="C218" t="s">
-        <v>593</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10484,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10492,11 +10474,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>593</v>
+      </c>
+      <c r="C219" t="s">
         <v>594</v>
       </c>
-      <c r="C219" t="s">
-        <v>595</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10507,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10515,11 +10497,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" t="s">
         <v>596</v>
       </c>
-      <c r="C220" t="s">
-        <v>597</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10530,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10538,11 +10520,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>597</v>
+      </c>
+      <c r="C221" t="s">
         <v>598</v>
       </c>
-      <c r="C221" t="s">
-        <v>599</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10553,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10561,11 +10543,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>599</v>
+      </c>
+      <c r="C222" t="s">
         <v>600</v>
       </c>
-      <c r="C222" t="s">
-        <v>601</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10576,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10584,11 +10566,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>601</v>
+      </c>
+      <c r="C223" t="s">
         <v>602</v>
       </c>
-      <c r="C223" t="s">
-        <v>603</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10599,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10607,11 +10589,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>603</v>
+      </c>
+      <c r="C224" t="s">
         <v>604</v>
       </c>
-      <c r="C224" t="s">
-        <v>605</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10622,18 +10604,18 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="16">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>606</v>
+      <c r="B225" s="9" t="s">
+        <v>652</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10653,22 +10635,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C226" t="s">
-        <v>608</v>
+        <v>617</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="I226" s="11" t="s">
-        <v>651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
@@ -10676,13 +10658,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D227" t="s">
         <v>620</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10704,7 +10686,7 @@
       <c r="C228" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="9" t="s">
         <v>623</v>
       </c>
       <c r="E228">
@@ -10745,13 +10727,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10768,13 +10750,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10791,22 +10773,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
@@ -10814,22 +10796,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
@@ -10837,22 +10819,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
@@ -10860,22 +10842,25 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>665</v>
+        <v>809</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>666</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10883,10 +10868,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>812</v>
+        <v>670</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>669</v>
@@ -10900,8 +10885,8 @@
       <c r="G236">
         <v>1</v>
       </c>
-      <c r="I236" t="s">
-        <v>667</v>
+      <c r="I236" s="9" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10909,14 +10894,14 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C237" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="E237">
         <v>1</v>
       </c>
@@ -10926,8 +10911,8 @@
       <c r="G237">
         <v>1</v>
       </c>
-      <c r="I237" s="9" t="s">
-        <v>671</v>
+      <c r="I237" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10935,10 +10920,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>676</v>
@@ -10961,13 +10946,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>681</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -10979,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10987,13 +10972,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="D240" s="9" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -11004,8 +10989,8 @@
       <c r="G240">
         <v>1</v>
       </c>
-      <c r="I240" t="s">
-        <v>686</v>
+      <c r="I240" s="9" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -11013,13 +10998,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -11031,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -11039,13 +11024,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -11057,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -11065,13 +11050,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -11083,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11091,13 +11076,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11109,7 +11094,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11117,13 +11102,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11135,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11143,13 +11128,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11161,7 +11146,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11169,13 +11154,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11187,7 +11172,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11195,13 +11180,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>719</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -11213,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11224,10 +11209,10 @@
         <v>724</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -11239,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11247,14 +11232,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C250" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>729</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11265,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11276,10 +11261,10 @@
         <v>732</v>
       </c>
       <c r="C251" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>731</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11299,78 +11284,78 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C252" t="s">
+        <v>740</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>735</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="16">
         <v>252</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="C253" t="s">
-        <v>743</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-      <c r="I253" s="9" t="s">
-        <v>738</v>
+      <c r="B253" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="C253" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="E253" s="30">
+        <v>0</v>
+      </c>
+      <c r="F253" s="30">
+        <v>0</v>
+      </c>
+      <c r="G253" s="30">
+        <v>0</v>
+      </c>
+      <c r="H253" s="30"/>
+      <c r="I253" s="29" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="30" t="s">
-        <v>973</v>
-      </c>
-      <c r="C254" s="31" t="s">
+      <c r="B254" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="D254" s="30" t="s">
-        <v>974</v>
-      </c>
-      <c r="E254" s="31">
-        <v>0</v>
-      </c>
-      <c r="F254" s="31">
-        <v>0</v>
-      </c>
-      <c r="G254" s="31">
-        <v>0</v>
-      </c>
-      <c r="H254" s="31"/>
-      <c r="I254" s="30" t="s">
-        <v>739</v>
+      <c r="C254" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11378,13 +11363,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11396,59 +11381,59 @@
         <v>1</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="16.5">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A256" s="16">
         <v>255</v>
       </c>
-      <c r="B256" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="C256" s="9" t="s">
+      <c r="B256" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="C256" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="D256" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
+      <c r="E256" s="26">
+        <v>1</v>
+      </c>
+      <c r="F256" s="26">
+        <v>1</v>
+      </c>
+      <c r="G256" s="26">
+        <v>1</v>
+      </c>
+      <c r="I256" s="22" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A257" s="16">
+        <v>256</v>
+      </c>
+      <c r="B257" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="D257" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="E257" s="17">
+        <v>0</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="I257" s="15" t="s">
         <v>752</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="27" customFormat="1" ht="16.5">
-      <c r="A257" s="25">
-        <v>256</v>
-      </c>
-      <c r="B257" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="C257" s="26" t="s">
-        <v>926</v>
-      </c>
-      <c r="D257" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="E257" s="27">
-        <v>1</v>
-      </c>
-      <c r="F257" s="27">
-        <v>1</v>
-      </c>
-      <c r="G257" s="27">
-        <v>1</v>
-      </c>
-      <c r="I257" s="22" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11456,14 +11441,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="C258" s="15" t="s">
-        <v>756</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>757</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11474,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11491,7 +11476,7 @@
         <v>761</v>
       </c>
       <c r="E259" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" s="17">
         <v>1</v>
@@ -11500,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11508,16 +11493,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E260" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" s="17">
         <v>1</v>
@@ -11526,32 +11511,32 @@
         <v>1</v>
       </c>
       <c r="I260" s="15" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
-      <c r="B261" s="15" t="s">
-        <v>766</v>
-      </c>
-      <c r="C261" s="15" t="s">
+      <c r="B261" t="s">
         <v>767</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="C261" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D261" t="s">
         <v>768</v>
       </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>769</v>
       </c>
     </row>
@@ -11559,16 +11544,16 @@
       <c r="A262" s="16">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>770</v>
+      <c r="B262" s="15" t="s">
+        <v>771</v>
       </c>
       <c r="C262" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D262" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="D262" t="s">
-        <v>771</v>
-      </c>
-      <c r="E262" s="5">
+      <c r="E262">
         <v>1</v>
       </c>
       <c r="F262">
@@ -11578,33 +11563,33 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="16.5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A263" s="16">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" s="15" t="s">
         <v>775</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-      <c r="I263" s="12" t="s">
-        <v>645</v>
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11612,13 +11597,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E264" s="17">
         <v>0</v>
@@ -11630,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>780</v>
+        <v>642</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11655,8 +11640,8 @@
       <c r="G265" s="17">
         <v>0</v>
       </c>
-      <c r="I265" s="15" t="s">
-        <v>645</v>
+      <c r="I265" s="17" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11664,12 +11649,12 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="D266" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>786</v>
       </c>
       <c r="E266" s="17">
@@ -11681,8 +11666,8 @@
       <c r="G266" s="17">
         <v>0</v>
       </c>
-      <c r="I266" s="17" t="s">
-        <v>787</v>
+      <c r="I266" s="19" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11690,14 +11675,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C267" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="D267" s="18" t="s">
-        <v>789</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11708,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>791</v>
+        <v>734</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11716,51 +11701,52 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C268" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="D268" s="18" t="s">
-        <v>793</v>
-      </c>
       <c r="E268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="16.5">
       <c r="A269" s="16">
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="E269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" s="17">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" s="17"/>
       <c r="I269" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5">
@@ -11768,13 +11754,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>800</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>804</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11787,7 +11773,7 @@
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5">
@@ -11795,26 +11781,26 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D271" s="18" t="s">
         <v>803</v>
       </c>
       <c r="E271" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="19" t="s">
-        <v>737</v>
+        <v>805</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5">
@@ -11822,13 +11808,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>807</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11841,7 +11827,7 @@
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="19" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -11849,10 +11835,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>811</v>
@@ -11868,7 +11854,7 @@
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="19" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -11876,83 +11862,79 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>813</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>815</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>814</v>
       </c>
       <c r="E274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="19" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="16.5">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="21" customFormat="1" ht="17.25">
       <c r="A275" s="16">
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
       </c>
       <c r="F275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" s="17"/>
-      <c r="I275" s="19" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25">
+      <c r="I275" s="28" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="16.5">
       <c r="A276" s="16">
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C276" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="C276" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="D276" s="18" t="s">
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="H276" s="17"/>
-      <c r="I276" s="29" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5">
+    </row>
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="16">
         <v>276</v>
       </c>
@@ -11960,46 +11942,49 @@
         <v>823</v>
       </c>
       <c r="C277" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="D277" s="32" t="s">
         <v>824</v>
       </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E277" s="15">
+        <v>0</v>
+      </c>
+      <c r="F277" s="15">
+        <v>0</v>
+      </c>
+      <c r="G277" s="15">
+        <v>0</v>
+      </c>
+      <c r="H277" s="15"/>
+      <c r="I277" s="15" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="16">
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="I278" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="D278" s="33" t="s">
-        <v>827</v>
-      </c>
-      <c r="E278" s="15">
-        <v>0</v>
-      </c>
-      <c r="F278" s="15">
-        <v>0</v>
-      </c>
-      <c r="G278" s="15">
-        <v>0</v>
-      </c>
-      <c r="H278" s="15"/>
-      <c r="I278" s="15" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12007,22 +11992,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>840</v>
-      </c>
-      <c r="D279" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E279">
         <v>0</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
         <v>829</v>
@@ -12033,9 +12015,12 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C280" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="D280" s="18" t="s">
         <v>830</v>
       </c>
       <c r="E280">
@@ -12048,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12056,25 +12041,25 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E281">
         <v>0</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12082,390 +12067,390 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="C282" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>839</v>
       </c>
-      <c r="D282" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5">
+    </row>
+    <row r="283" spans="1:9" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="16">
         <v>282</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="C283" s="33" t="s">
+        <v>841</v>
+      </c>
+      <c r="D283" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="E283" s="35">
+        <v>1</v>
+      </c>
+      <c r="F283" s="35">
+        <v>1</v>
+      </c>
+      <c r="G283" s="35">
+        <v>1</v>
+      </c>
+      <c r="I283" s="36" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A284" s="16">
+        <v>283</v>
+      </c>
+      <c r="B284" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="C284" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="D284" s="34" t="s">
         <v>847</v>
       </c>
-      <c r="C283" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="37" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A284" s="34">
-        <v>283</v>
-      </c>
-      <c r="B284" s="36" t="s">
-        <v>843</v>
-      </c>
-      <c r="C284" s="35" t="s">
-        <v>844</v>
-      </c>
-      <c r="D284" s="36" t="s">
-        <v>845</v>
-      </c>
-      <c r="E284" s="37">
-        <v>1</v>
-      </c>
-      <c r="F284" s="37">
-        <v>1</v>
-      </c>
-      <c r="G284" s="37">
-        <v>1</v>
-      </c>
-      <c r="I284" s="38" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A285" s="34">
+      <c r="E284" s="35">
+        <v>1</v>
+      </c>
+      <c r="F284" s="35">
+        <v>1</v>
+      </c>
+      <c r="G284" s="35">
+        <v>1</v>
+      </c>
+      <c r="I284" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="16.5">
+      <c r="A285" s="16">
         <v>284</v>
       </c>
-      <c r="B285" s="36" t="s">
+      <c r="B285" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="C285" s="35" t="s">
+      <c r="C285" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="D285" s="36" t="s">
-        <v>850</v>
-      </c>
-      <c r="E285" s="37">
-        <v>1</v>
-      </c>
-      <c r="F285" s="37">
-        <v>1</v>
-      </c>
-      <c r="G285" s="37">
-        <v>1</v>
-      </c>
-      <c r="I285" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" ht="16.5">
+      <c r="D285" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="19" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A286" s="16">
         <v>285</v>
       </c>
-      <c r="B286" s="15" t="s">
-        <v>854</v>
-      </c>
-      <c r="C286" s="15" t="s">
+      <c r="B286" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="C286" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="D286" s="34" t="s">
         <v>855</v>
       </c>
-      <c r="D286" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="19" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A287" s="34">
+      <c r="E286" s="35">
+        <v>1</v>
+      </c>
+      <c r="F286" s="35">
+        <v>1</v>
+      </c>
+      <c r="G286" s="35">
+        <v>1</v>
+      </c>
+      <c r="I286" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A287" s="16">
         <v>286</v>
       </c>
-      <c r="B287" s="35" t="s">
+      <c r="B287" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="C287" s="33" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="35" t="s">
+      <c r="D287" s="34" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="36" t="s">
-        <v>858</v>
-      </c>
-      <c r="E287" s="37">
-        <v>1</v>
-      </c>
-      <c r="F287" s="37">
-        <v>1</v>
-      </c>
-      <c r="G287" s="37">
-        <v>1</v>
-      </c>
-      <c r="I287" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A288" s="34">
+      <c r="E287" s="35">
+        <v>1</v>
+      </c>
+      <c r="F287" s="35">
+        <v>1</v>
+      </c>
+      <c r="G287" s="35">
+        <v>1</v>
+      </c>
+      <c r="I287" s="36" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="A288" s="16">
         <v>287</v>
       </c>
-      <c r="B288" s="35" t="s">
-        <v>861</v>
-      </c>
-      <c r="C288" s="35" t="s">
+      <c r="B288" s="29" t="s">
         <v>862</v>
       </c>
-      <c r="D288" s="36" t="s">
+      <c r="C288" s="29" t="s">
         <v>863</v>
       </c>
-      <c r="E288" s="37">
-        <v>1</v>
-      </c>
-      <c r="F288" s="37">
-        <v>1</v>
-      </c>
-      <c r="G288" s="37">
-        <v>1</v>
-      </c>
-      <c r="I288" s="38" t="s">
+      <c r="D288" s="29" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="E288" s="30">
+        <v>1</v>
+      </c>
+      <c r="F288" s="30">
+        <v>1</v>
+      </c>
+      <c r="G288" s="30">
+        <v>1</v>
+      </c>
+      <c r="H288" s="30"/>
+      <c r="I288" s="29" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
-      <c r="B289" s="30" t="s">
+      <c r="B289" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C289" s="30" t="s">
+      <c r="C289" s="33" t="s">
         <v>866</v>
       </c>
-      <c r="D289" s="30" t="s">
+      <c r="D289" s="34" t="s">
         <v>867</v>
       </c>
-      <c r="E289" s="31">
-        <v>1</v>
-      </c>
-      <c r="F289" s="31">
-        <v>1</v>
-      </c>
-      <c r="G289" s="31">
-        <v>1</v>
-      </c>
-      <c r="H289" s="31"/>
-      <c r="I289" s="30" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A290" s="34">
+      <c r="E289" s="35">
+        <v>1</v>
+      </c>
+      <c r="F289" s="35">
+        <v>1</v>
+      </c>
+      <c r="G289" s="35">
+        <v>1</v>
+      </c>
+      <c r="I289" s="36" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A290" s="16">
         <v>289</v>
       </c>
-      <c r="B290" s="35" t="s">
-        <v>868</v>
-      </c>
-      <c r="C290" s="35" t="s">
+      <c r="B290" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="36" t="s">
+      <c r="C290" s="33" t="s">
         <v>870</v>
       </c>
-      <c r="E290" s="37">
-        <v>1</v>
-      </c>
-      <c r="F290" s="37">
-        <v>1</v>
-      </c>
-      <c r="G290" s="37">
-        <v>1</v>
-      </c>
-      <c r="I290" s="38" t="s">
+      <c r="D290" s="34" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A291" s="34">
+      <c r="E290" s="35">
+        <v>1</v>
+      </c>
+      <c r="F290" s="35">
+        <v>1</v>
+      </c>
+      <c r="G290" s="35">
+        <v>1</v>
+      </c>
+      <c r="I290" s="36" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A291" s="16">
         <v>290</v>
       </c>
-      <c r="B291" s="36" t="s">
-        <v>872</v>
-      </c>
-      <c r="C291" s="35" t="s">
+      <c r="B291" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="D291" s="36" t="s">
+      <c r="C291" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="E291" s="37">
-        <v>1</v>
-      </c>
-      <c r="F291" s="37">
-        <v>1</v>
-      </c>
-      <c r="G291" s="37">
-        <v>1</v>
-      </c>
-      <c r="I291" s="38" t="s">
+      <c r="D291" s="34" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A292" s="34">
+      <c r="E291" s="35">
+        <v>1</v>
+      </c>
+      <c r="F291" s="35">
+        <v>1</v>
+      </c>
+      <c r="G291" s="35">
+        <v>1</v>
+      </c>
+      <c r="I291" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A292" s="16">
         <v>291</v>
       </c>
-      <c r="B292" s="36" t="s">
+      <c r="B292" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="C292" s="35" t="s">
+      <c r="C292" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="D292" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="E292" s="35">
+        <v>1</v>
+      </c>
+      <c r="F292" s="35">
+        <v>1</v>
+      </c>
+      <c r="G292" s="35">
+        <v>1</v>
+      </c>
+      <c r="I292" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A293" s="16">
+        <v>292</v>
+      </c>
+      <c r="B293" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="D292" s="36" t="s">
-        <v>878</v>
-      </c>
-      <c r="E292" s="37">
-        <v>1</v>
-      </c>
-      <c r="F292" s="37">
-        <v>1</v>
-      </c>
-      <c r="G292" s="37">
-        <v>1</v>
-      </c>
-      <c r="I292" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A293" s="34">
-        <v>292</v>
-      </c>
-      <c r="B293" s="36" t="s">
+      <c r="C293" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D293" s="34" t="s">
         <v>879</v>
       </c>
-      <c r="C293" s="35" t="s">
+      <c r="E293" s="35">
+        <v>1</v>
+      </c>
+      <c r="F293" s="35">
+        <v>1</v>
+      </c>
+      <c r="G293" s="35">
+        <v>1</v>
+      </c>
+      <c r="I293" s="36" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A294" s="16">
+        <v>293</v>
+      </c>
+      <c r="B294" s="34" t="s">
+        <v>883</v>
+      </c>
+      <c r="C294" s="33" t="s">
         <v>884</v>
       </c>
-      <c r="D293" s="36" t="s">
-        <v>881</v>
-      </c>
-      <c r="E293" s="37">
-        <v>1</v>
-      </c>
-      <c r="F293" s="37">
-        <v>1</v>
-      </c>
-      <c r="G293" s="37">
-        <v>1</v>
-      </c>
-      <c r="I293" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A294" s="34">
-        <v>293</v>
-      </c>
-      <c r="B294" s="36" t="s">
-        <v>880</v>
-      </c>
-      <c r="C294" s="35" t="s">
+      <c r="D294" s="34" t="s">
         <v>885</v>
       </c>
-      <c r="D294" s="36" t="s">
-        <v>882</v>
-      </c>
-      <c r="E294" s="37">
-        <v>1</v>
-      </c>
-      <c r="F294" s="37">
-        <v>1</v>
-      </c>
-      <c r="G294" s="37">
-        <v>1</v>
-      </c>
-      <c r="I294" s="38" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A295" s="34">
+      <c r="E294" s="35">
+        <v>1</v>
+      </c>
+      <c r="F294" s="35">
+        <v>1</v>
+      </c>
+      <c r="G294" s="35">
+        <v>1</v>
+      </c>
+      <c r="I294" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A295" s="16">
         <v>294</v>
       </c>
-      <c r="B295" s="36" t="s">
+      <c r="B295" s="34" t="s">
         <v>886</v>
       </c>
-      <c r="C295" s="35" t="s">
+      <c r="C295" s="33" t="s">
         <v>887</v>
       </c>
-      <c r="D295" s="36" t="s">
+      <c r="D295" s="34" t="s">
         <v>888</v>
       </c>
-      <c r="E295" s="37">
-        <v>1</v>
-      </c>
-      <c r="F295" s="37">
-        <v>1</v>
-      </c>
-      <c r="G295" s="37">
-        <v>1</v>
-      </c>
-      <c r="I295" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A296" s="34">
+      <c r="E295" s="35">
+        <v>1</v>
+      </c>
+      <c r="F295" s="35">
+        <v>1</v>
+      </c>
+      <c r="G295" s="35">
+        <v>1</v>
+      </c>
+      <c r="I295" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="16.5">
+      <c r="A296" s="16">
         <v>295</v>
       </c>
-      <c r="B296" s="36" t="s">
+      <c r="B296" s="20" t="s">
         <v>889</v>
       </c>
-      <c r="C296" s="35" t="s">
+      <c r="C296" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="D296" s="36" t="s">
-        <v>891</v>
-      </c>
-      <c r="E296" s="37">
-        <v>1</v>
-      </c>
-      <c r="F296" s="37">
-        <v>1</v>
-      </c>
-      <c r="G296" s="37">
-        <v>1</v>
-      </c>
-      <c r="I296" s="38" t="s">
-        <v>645</v>
+      <c r="D296" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="15" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="16.5">
@@ -12473,14 +12458,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C297" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="D297" s="20" t="s">
         <v>893</v>
       </c>
-      <c r="D297" s="20" t="s">
-        <v>895</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12491,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12499,14 +12484,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="D298" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="C298" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="D298" s="20" t="s">
-        <v>896</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12517,59 +12502,60 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="16.5">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="20" t="s">
+      <c r="B299" s="34" t="s">
         <v>898</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="C299" s="33" t="s">
         <v>899</v>
       </c>
-      <c r="D299" s="20" t="s">
+      <c r="D299" s="34" t="s">
         <v>900</v>
       </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-      <c r="I299" s="15" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="E299" s="35">
+        <v>1</v>
+      </c>
+      <c r="F299" s="35">
+        <v>1</v>
+      </c>
+      <c r="G299" s="35">
+        <v>1</v>
+      </c>
+      <c r="I299" s="36" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="36" t="s">
-        <v>901</v>
-      </c>
-      <c r="C300" s="35" t="s">
-        <v>902</v>
-      </c>
-      <c r="D300" s="36" t="s">
-        <v>903</v>
-      </c>
-      <c r="E300" s="37">
-        <v>1</v>
-      </c>
-      <c r="F300" s="37">
-        <v>1</v>
-      </c>
-      <c r="G300" s="37">
-        <v>1</v>
-      </c>
-      <c r="I300" s="38" t="s">
+      <c r="B300" s="18" t="s">
         <v>904</v>
+      </c>
+      <c r="C300" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="E300" s="17">
+        <v>0</v>
+      </c>
+      <c r="F300" s="17">
+        <v>0</v>
+      </c>
+      <c r="G300" s="17">
+        <v>0</v>
+      </c>
+      <c r="H300" s="17"/>
+      <c r="I300" s="19" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12577,7 +12563,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C301" s="15" t="s">
         <v>908</v>
@@ -12596,286 +12582,286 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>912</v>
+        <v>929</v>
       </c>
       <c r="E302" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F302" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G302" s="17">
-        <v>0</v>
-      </c>
-      <c r="H302" s="17"/>
-      <c r="I302" s="19" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>1</v>
+      </c>
+      <c r="I302" s="15" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>932</v>
+        <v>911</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>913</v>
       </c>
       <c r="E303" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F303" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303" s="17">
-        <v>1</v>
-      </c>
-      <c r="I303" s="15" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
+        <v>0</v>
+      </c>
+      <c r="H303" s="17"/>
+      <c r="I303" s="19" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="18" t="s">
+      <c r="B304" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>918</v>
+      </c>
+      <c r="D304" s="34" t="s">
         <v>915</v>
       </c>
-      <c r="C304" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="D304" s="18" t="s">
+      <c r="E304" s="35">
+        <v>1</v>
+      </c>
+      <c r="F304" s="35">
+        <v>1</v>
+      </c>
+      <c r="G304" s="35">
+        <v>1</v>
+      </c>
+      <c r="I304" s="36" t="s">
         <v>916</v>
       </c>
-      <c r="E304" s="17">
-        <v>0</v>
-      </c>
-      <c r="F304" s="17">
-        <v>0</v>
-      </c>
-      <c r="G304" s="17">
-        <v>0</v>
-      </c>
-      <c r="H304" s="17"/>
-      <c r="I304" s="19" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="37" customFormat="1" ht="16.5">
+    </row>
+    <row r="305" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="36" t="s">
-        <v>917</v>
-      </c>
-      <c r="C305" s="35" t="s">
-        <v>921</v>
-      </c>
-      <c r="D305" s="36" t="s">
-        <v>918</v>
-      </c>
-      <c r="E305" s="37">
-        <v>1</v>
-      </c>
-      <c r="F305" s="37">
-        <v>1</v>
-      </c>
-      <c r="G305" s="37">
-        <v>1</v>
-      </c>
-      <c r="I305" s="38" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="B305" s="45" t="s">
+        <v>978</v>
+      </c>
+      <c r="C305" s="46" t="s">
+        <v>942</v>
+      </c>
+      <c r="D305" s="45" t="s">
+        <v>984</v>
+      </c>
+      <c r="E305" s="47">
+        <v>1</v>
+      </c>
+      <c r="F305" s="47">
+        <v>1</v>
+      </c>
+      <c r="G305" s="47">
+        <v>1</v>
+      </c>
+      <c r="H305" s="47"/>
+      <c r="I305" s="46" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="47" t="s">
-        <v>981</v>
-      </c>
-      <c r="C306" s="48" t="s">
-        <v>945</v>
-      </c>
-      <c r="D306" s="47" t="s">
-        <v>987</v>
-      </c>
-      <c r="E306" s="49">
-        <v>1</v>
-      </c>
-      <c r="F306" s="49">
-        <v>1</v>
-      </c>
-      <c r="G306" s="49">
-        <v>1</v>
-      </c>
-      <c r="H306" s="49"/>
-      <c r="I306" s="48" t="s">
-        <v>947</v>
+      <c r="B306" s="45" t="s">
+        <v>979</v>
+      </c>
+      <c r="C306" s="46" t="s">
+        <v>943</v>
+      </c>
+      <c r="D306" s="45" t="s">
+        <v>985</v>
+      </c>
+      <c r="E306" s="47">
+        <v>1</v>
+      </c>
+      <c r="F306" s="47">
+        <v>1</v>
+      </c>
+      <c r="G306" s="47">
+        <v>1</v>
+      </c>
+      <c r="H306" s="47"/>
+      <c r="I306" s="46" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="47" t="s">
-        <v>982</v>
-      </c>
-      <c r="C307" s="48" t="s">
-        <v>946</v>
-      </c>
-      <c r="D307" s="47" t="s">
-        <v>988</v>
-      </c>
-      <c r="E307" s="49">
-        <v>1</v>
-      </c>
-      <c r="F307" s="49">
-        <v>1</v>
-      </c>
-      <c r="G307" s="49">
-        <v>1</v>
-      </c>
-      <c r="H307" s="49"/>
+      <c r="B307" s="45" t="s">
+        <v>972</v>
+      </c>
+      <c r="C307" s="45" t="s">
+        <v>949</v>
+      </c>
+      <c r="D307" s="45" t="s">
+        <v>973</v>
+      </c>
+      <c r="E307" s="47">
+        <v>1</v>
+      </c>
+      <c r="F307" s="47">
+        <v>1</v>
+      </c>
+      <c r="G307" s="47">
+        <v>1</v>
+      </c>
+      <c r="H307" s="47"/>
       <c r="I307" s="48" t="s">
-        <v>947</v>
+        <v>642</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="47" t="s">
-        <v>975</v>
-      </c>
-      <c r="C308" s="47" t="s">
-        <v>952</v>
-      </c>
-      <c r="D308" s="47" t="s">
-        <v>976</v>
-      </c>
-      <c r="E308" s="49">
-        <v>1</v>
-      </c>
-      <c r="F308" s="49">
-        <v>1</v>
-      </c>
-      <c r="G308" s="49">
-        <v>1</v>
-      </c>
-      <c r="H308" s="49"/>
-      <c r="I308" s="50" t="s">
-        <v>645</v>
+      <c r="B308" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="C308" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="D308" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="H308" s="17"/>
+      <c r="I308" s="19" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="17" t="s">
+      <c r="B309" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="D309" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
+      </c>
+      <c r="H309" s="17"/>
+      <c r="I309" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="C309" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
-      </c>
-      <c r="H309" s="17"/>
-      <c r="I309" s="19" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="16.5">
+    </row>
+    <row r="310" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="18" t="s">
-        <v>929</v>
-      </c>
-      <c r="C310" s="15" t="s">
-        <v>989</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>928</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="H310" s="17"/>
-      <c r="I310" s="15" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="B310" s="34" t="s">
+        <v>933</v>
+      </c>
+      <c r="C310" s="33" t="s">
+        <v>934</v>
+      </c>
+      <c r="D310" s="34" t="s">
+        <v>932</v>
+      </c>
+      <c r="E310" s="35">
+        <v>1</v>
+      </c>
+      <c r="F310" s="35">
+        <v>1</v>
+      </c>
+      <c r="G310" s="35">
+        <v>1</v>
+      </c>
+      <c r="I310" s="33" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="36" t="s">
+      <c r="B311" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="C311" s="35" t="s">
+      <c r="C311" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="D311" s="18" t="s">
         <v>937</v>
       </c>
-      <c r="D311" s="36" t="s">
-        <v>935</v>
-      </c>
-      <c r="E311" s="37">
-        <v>1</v>
-      </c>
-      <c r="F311" s="37">
-        <v>1</v>
-      </c>
-      <c r="G311" s="37">
-        <v>1</v>
-      </c>
-      <c r="I311" s="35" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="16.5">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="H311" s="17"/>
+      <c r="I311" s="15" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="D312" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="D312" s="18" t="s">
-        <v>940</v>
-      </c>
       <c r="E312" s="17">
         <v>1</v>
       </c>
@@ -12885,72 +12871,71 @@
       <c r="G312" s="17">
         <v>1</v>
       </c>
-      <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="D313" s="18" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="E313" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F313" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="16.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="17.25">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="18" t="s">
-        <v>949</v>
+      <c r="B314" s="31" t="s">
+        <v>950</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>950</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>951</v>
+        <v>952</v>
+      </c>
+      <c r="D314" s="20" t="s">
+        <v>955</v>
       </c>
       <c r="E314" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314" s="17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I314" s="9" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="17.25">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="32" t="s">
+      <c r="B315" s="31" t="s">
+        <v>951</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>953</v>
       </c>
-      <c r="C315" s="15" t="s">
-        <v>955</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>958</v>
+      <c r="D315" s="31" t="s">
+        <v>959</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12958,241 +12943,215 @@
       <c r="F315" s="17">
         <v>1</v>
       </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="17.25">
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="I315" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="32" t="s">
-        <v>954</v>
-      </c>
-      <c r="C316" s="15" t="s">
+      <c r="B316" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="C316" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="D316" s="27" t="s">
         <v>956</v>
       </c>
-      <c r="D316" s="32" t="s">
-        <v>962</v>
-      </c>
-      <c r="E316" s="17">
-        <v>1</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316">
-        <v>1</v>
-      </c>
-      <c r="I316" s="19" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="16.5">
+      <c r="E316" s="26">
+        <v>1</v>
+      </c>
+      <c r="F316" s="26">
+        <v>1</v>
+      </c>
+      <c r="G316" s="26">
+        <v>1</v>
+      </c>
+      <c r="H316" s="26"/>
+      <c r="I316" s="37" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="17.25">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="28" t="s">
-        <v>966</v>
-      </c>
-      <c r="C317" s="26" t="s">
+      <c r="B317" s="38" t="s">
+        <v>964</v>
+      </c>
+      <c r="C317" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="D317" s="38" t="s">
         <v>960</v>
       </c>
-      <c r="D317" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="E317" s="27">
-        <v>1</v>
-      </c>
-      <c r="F317" s="27">
-        <v>1</v>
-      </c>
-      <c r="G317" s="27">
-        <v>1</v>
-      </c>
-      <c r="H317" s="27"/>
-      <c r="I317" s="39" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" ht="17.25">
+      <c r="E317" s="26">
+        <v>1</v>
+      </c>
+      <c r="F317" s="26">
+        <v>1</v>
+      </c>
+      <c r="G317" s="26">
+        <v>1</v>
+      </c>
+      <c r="H317" s="26"/>
+      <c r="I317" s="25" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="40" t="s">
-        <v>967</v>
-      </c>
-      <c r="C318" s="26" t="s">
-        <v>964</v>
-      </c>
-      <c r="D318" s="40" t="s">
-        <v>963</v>
-      </c>
-      <c r="E318" s="27">
-        <v>1</v>
-      </c>
-      <c r="F318" s="27">
-        <v>1</v>
-      </c>
-      <c r="G318" s="27">
-        <v>1</v>
-      </c>
-      <c r="H318" s="27"/>
-      <c r="I318" s="26" t="s">
+      <c r="B318" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="C318" s="42" t="s">
         <v>965</v>
+      </c>
+      <c r="D318" s="43"/>
+      <c r="E318" s="43">
+        <v>1</v>
+      </c>
+      <c r="F318" s="43">
+        <v>1</v>
+      </c>
+      <c r="G318" s="43">
+        <v>1</v>
+      </c>
+      <c r="H318" s="43"/>
+      <c r="I318" s="42" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="46" t="s">
-        <v>983</v>
-      </c>
-      <c r="C319" s="44" t="s">
-        <v>968</v>
-      </c>
-      <c r="D319" s="45"/>
-      <c r="E319" s="45">
-        <v>1</v>
-      </c>
-      <c r="F319" s="45">
-        <v>1</v>
-      </c>
-      <c r="G319" s="45">
-        <v>1</v>
-      </c>
-      <c r="H319" s="45"/>
-      <c r="I319" s="44" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" ht="16.5">
+      <c r="B319" s="44" t="s">
+        <v>981</v>
+      </c>
+      <c r="C319" s="42" t="s">
+        <v>966</v>
+      </c>
+      <c r="D319" s="43"/>
+      <c r="E319" s="43">
+        <v>1</v>
+      </c>
+      <c r="F319" s="43">
+        <v>1</v>
+      </c>
+      <c r="G319" s="43">
+        <v>1</v>
+      </c>
+      <c r="H319" s="43"/>
+      <c r="I319" s="42" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="46" t="s">
-        <v>984</v>
-      </c>
-      <c r="C320" s="44" t="s">
-        <v>969</v>
-      </c>
-      <c r="D320" s="45"/>
-      <c r="E320" s="45">
-        <v>1</v>
-      </c>
-      <c r="F320" s="45">
-        <v>1</v>
-      </c>
-      <c r="G320" s="45">
-        <v>1</v>
-      </c>
-      <c r="H320" s="45"/>
-      <c r="I320" s="44" t="s">
-        <v>979</v>
+      <c r="B320" s="44" t="s">
+        <v>975</v>
+      </c>
+      <c r="C320" s="43"/>
+      <c r="D320" s="43"/>
+      <c r="E320" s="43">
+        <v>1</v>
+      </c>
+      <c r="F320" s="43">
+        <v>1</v>
+      </c>
+      <c r="G320" s="43">
+        <v>1</v>
+      </c>
+      <c r="H320" s="43"/>
+      <c r="I320" s="42" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="46" t="s">
-        <v>978</v>
-      </c>
-      <c r="C321" s="45"/>
-      <c r="D321" s="45"/>
-      <c r="E321" s="45">
-        <v>1</v>
-      </c>
-      <c r="F321" s="45">
-        <v>1</v>
-      </c>
-      <c r="G321" s="45">
-        <v>1</v>
-      </c>
-      <c r="H321" s="45"/>
-      <c r="I321" s="44" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B321" s="44" t="s">
+        <v>974</v>
+      </c>
+      <c r="C321" s="43"/>
+      <c r="D321" s="43"/>
+      <c r="E321" s="43">
+        <v>1</v>
+      </c>
+      <c r="F321" s="43">
+        <v>1</v>
+      </c>
+      <c r="G321" s="43">
+        <v>1</v>
+      </c>
+      <c r="H321" s="43"/>
+      <c r="I321" s="42" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="46" t="s">
-        <v>977</v>
-      </c>
-      <c r="C322" s="45"/>
-      <c r="D322" s="45"/>
-      <c r="E322" s="45">
-        <v>1</v>
-      </c>
-      <c r="F322" s="45">
-        <v>1</v>
-      </c>
-      <c r="G322" s="45">
-        <v>1</v>
-      </c>
-      <c r="H322" s="45"/>
-      <c r="I322" s="44" t="s">
-        <v>970</v>
+      <c r="B322" s="44" t="s">
+        <v>982</v>
+      </c>
+      <c r="C322" s="42" t="s">
+        <v>968</v>
+      </c>
+      <c r="D322" s="43"/>
+      <c r="E322" s="43">
+        <v>1</v>
+      </c>
+      <c r="F322" s="43">
+        <v>1</v>
+      </c>
+      <c r="G322" s="43">
+        <v>1</v>
+      </c>
+      <c r="H322" s="43"/>
+      <c r="I322" s="42" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="46" t="s">
-        <v>985</v>
-      </c>
-      <c r="C323" s="44" t="s">
-        <v>971</v>
-      </c>
-      <c r="D323" s="45"/>
-      <c r="E323" s="45">
-        <v>1</v>
-      </c>
-      <c r="F323" s="45">
-        <v>1</v>
-      </c>
-      <c r="G323" s="45">
-        <v>1</v>
-      </c>
-      <c r="H323" s="45"/>
-      <c r="I323" s="44" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" ht="16.5">
-      <c r="A324" s="16">
-        <v>323</v>
-      </c>
-      <c r="B324" s="46" t="s">
-        <v>986</v>
-      </c>
-      <c r="C324" s="44" t="s">
-        <v>972</v>
-      </c>
-      <c r="D324" s="45"/>
-      <c r="E324" s="45">
-        <v>1</v>
-      </c>
-      <c r="F324" s="45">
-        <v>1</v>
-      </c>
-      <c r="G324" s="45">
-        <v>1</v>
-      </c>
-      <c r="H324" s="45"/>
-      <c r="I324" s="44" t="s">
-        <v>970</v>
+      <c r="B323" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="C323" s="42" t="s">
+        <v>969</v>
+      </c>
+      <c r="D323" s="43"/>
+      <c r="E323" s="43">
+        <v>1</v>
+      </c>
+      <c r="F323" s="43">
+        <v>1</v>
+      </c>
+      <c r="G323" s="43">
+        <v>1</v>
+      </c>
+      <c r="H323" s="43"/>
+      <c r="I323" s="42" t="s">
+        <v>967</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H234"/>
+  <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13215,7 +13174,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="985">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3901,58 +3901,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1月11日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双十二页签→元旦活动→欢乐庆典</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双十二→庆典礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4905,13 +4858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I324"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K326" sqref="K326"/>
+      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11316,13 +11269,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="29" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C253" s="30" t="s">
         <v>739</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E253" s="30">
         <v>0</v>
@@ -11948,7 +11901,7 @@
         <v>823</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>824</v>
@@ -11964,7 +11917,7 @@
       </c>
       <c r="H277" s="15"/>
       <c r="I277" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12248,7 +12201,7 @@
       </c>
       <c r="H288" s="30"/>
       <c r="I288" s="29" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="35" customFormat="1" ht="16.5">
@@ -12591,94 +12544,98 @@
         <v>907</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>929</v>
+        <v>911</v>
+      </c>
+      <c r="D302" s="18" t="s">
+        <v>913</v>
       </c>
       <c r="E302" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F302" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G302" s="17">
-        <v>1</v>
-      </c>
-      <c r="I302" s="15" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
+        <v>0</v>
+      </c>
+      <c r="H302" s="17"/>
+      <c r="I302" s="19" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="18" t="s">
-        <v>912</v>
-      </c>
-      <c r="C303" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="D303" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="E303" s="17">
-        <v>0</v>
-      </c>
-      <c r="F303" s="17">
-        <v>0</v>
-      </c>
-      <c r="G303" s="17">
-        <v>0</v>
-      </c>
-      <c r="H303" s="17"/>
-      <c r="I303" s="19" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="B303" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="C303" s="33" t="s">
+        <v>918</v>
+      </c>
+      <c r="D303" s="34" t="s">
+        <v>915</v>
+      </c>
+      <c r="E303" s="35">
+        <v>1</v>
+      </c>
+      <c r="F303" s="35">
+        <v>1</v>
+      </c>
+      <c r="G303" s="35">
+        <v>1</v>
+      </c>
+      <c r="I303" s="36" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="34" t="s">
-        <v>914</v>
-      </c>
-      <c r="C304" s="33" t="s">
-        <v>918</v>
-      </c>
-      <c r="D304" s="34" t="s">
-        <v>915</v>
-      </c>
-      <c r="E304" s="35">
-        <v>1</v>
-      </c>
-      <c r="F304" s="35">
-        <v>1</v>
-      </c>
-      <c r="G304" s="35">
-        <v>1</v>
-      </c>
-      <c r="I304" s="36" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="B304" s="45" t="s">
+        <v>975</v>
+      </c>
+      <c r="C304" s="46" t="s">
+        <v>939</v>
+      </c>
+      <c r="D304" s="45" t="s">
+        <v>981</v>
+      </c>
+      <c r="E304" s="47">
+        <v>1</v>
+      </c>
+      <c r="F304" s="47">
+        <v>1</v>
+      </c>
+      <c r="G304" s="47">
+        <v>1</v>
+      </c>
+      <c r="H304" s="47"/>
+      <c r="I304" s="46" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
       <c r="B305" s="45" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C305" s="46" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D305" s="45" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E305" s="47">
         <v>1</v>
@@ -12691,7 +12648,7 @@
       </c>
       <c r="H305" s="47"/>
       <c r="I305" s="46" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12699,13 +12656,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="45" t="s">
-        <v>979</v>
-      </c>
-      <c r="C306" s="46" t="s">
-        <v>943</v>
+        <v>969</v>
+      </c>
+      <c r="C306" s="45" t="s">
+        <v>946</v>
       </c>
       <c r="D306" s="45" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="E306" s="47">
         <v>1</v>
@@ -12717,49 +12674,49 @@
         <v>1</v>
       </c>
       <c r="H306" s="47"/>
-      <c r="I306" s="46" t="s">
-        <v>944</v>
+      <c r="I306" s="48" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="45" t="s">
-        <v>972</v>
-      </c>
-      <c r="C307" s="45" t="s">
-        <v>949</v>
-      </c>
-      <c r="D307" s="45" t="s">
-        <v>973</v>
-      </c>
-      <c r="E307" s="47">
-        <v>1</v>
-      </c>
-      <c r="F307" s="47">
-        <v>1</v>
-      </c>
-      <c r="G307" s="47">
-        <v>1</v>
-      </c>
-      <c r="H307" s="47"/>
-      <c r="I307" s="48" t="s">
-        <v>642</v>
+      <c r="B307" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="C307" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="E307" s="17">
+        <v>1</v>
+      </c>
+      <c r="F307" s="17">
+        <v>1</v>
+      </c>
+      <c r="G307" s="17">
+        <v>1</v>
+      </c>
+      <c r="H307" s="17"/>
+      <c r="I307" s="19" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="C308" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="D308" s="17" t="s">
-        <v>919</v>
+      <c r="B308" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>925</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -12771,76 +12728,76 @@
         <v>1</v>
       </c>
       <c r="H308" s="17"/>
-      <c r="I308" s="19" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5">
+      <c r="I308" s="15" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="18" t="s">
-        <v>926</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>986</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>925</v>
-      </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
-      </c>
-      <c r="H309" s="17"/>
-      <c r="I309" s="15" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="B309" s="34" t="s">
+        <v>930</v>
+      </c>
+      <c r="C309" s="33" t="s">
+        <v>931</v>
+      </c>
+      <c r="D309" s="34" t="s">
+        <v>929</v>
+      </c>
+      <c r="E309" s="35">
+        <v>1</v>
+      </c>
+      <c r="F309" s="35">
+        <v>1</v>
+      </c>
+      <c r="G309" s="35">
+        <v>1</v>
+      </c>
+      <c r="I309" s="33" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="34" t="s">
+      <c r="B310" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="C310" s="33" t="s">
+      <c r="C310" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>934</v>
       </c>
-      <c r="D310" s="34" t="s">
-        <v>932</v>
-      </c>
-      <c r="E310" s="35">
-        <v>1</v>
-      </c>
-      <c r="F310" s="35">
-        <v>1</v>
-      </c>
-      <c r="G310" s="35">
-        <v>1</v>
-      </c>
-      <c r="I310" s="33" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" ht="16.5">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="H310" s="17"/>
+      <c r="I310" s="15" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
       <c r="B311" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="18" t="s">
         <v>938</v>
       </c>
-      <c r="D311" s="18" t="s">
-        <v>937</v>
-      </c>
       <c r="E311" s="17">
         <v>1</v>
       </c>
@@ -12850,58 +12807,57 @@
       <c r="G311" s="17">
         <v>1</v>
       </c>
-      <c r="H311" s="17"/>
       <c r="I311" s="15" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D312" s="18" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="E312" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="15" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" ht="16.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="17.25">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="18" t="s">
-        <v>946</v>
+      <c r="B313" s="31" t="s">
+        <v>947</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>947</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>948</v>
+        <v>949</v>
+      </c>
+      <c r="D313" s="20" t="s">
+        <v>952</v>
       </c>
       <c r="E313" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313" s="17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I313" s="9" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="17.25">
@@ -12909,13 +12865,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="C314" s="15" t="s">
-        <v>952</v>
-      </c>
-      <c r="D314" s="20" t="s">
-        <v>955</v>
+      <c r="D314" s="31" t="s">
+        <v>956</v>
       </c>
       <c r="E314" s="17">
         <v>1</v>
@@ -12923,52 +12879,53 @@
       <c r="F314" s="17">
         <v>1</v>
       </c>
-      <c r="G314" s="17">
-        <v>1</v>
-      </c>
-      <c r="I314" s="9" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="17.25">
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="I314" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="31" t="s">
-        <v>951</v>
-      </c>
-      <c r="C315" s="15" t="s">
+      <c r="B315" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="C315" s="25" t="s">
+        <v>954</v>
+      </c>
+      <c r="D315" s="27" t="s">
         <v>953</v>
       </c>
-      <c r="D315" s="31" t="s">
-        <v>959</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315">
-        <v>1</v>
-      </c>
-      <c r="I315" s="19" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="16.5">
+      <c r="E315" s="26">
+        <v>1</v>
+      </c>
+      <c r="F315" s="26">
+        <v>1</v>
+      </c>
+      <c r="G315" s="26">
+        <v>1</v>
+      </c>
+      <c r="H315" s="26"/>
+      <c r="I315" s="37" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="17.25">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="27" t="s">
-        <v>963</v>
+      <c r="B316" s="38" t="s">
+        <v>961</v>
       </c>
       <c r="C316" s="25" t="s">
+        <v>958</v>
+      </c>
+      <c r="D316" s="38" t="s">
         <v>957</v>
       </c>
-      <c r="D316" s="27" t="s">
-        <v>956</v>
-      </c>
       <c r="E316" s="26">
         <v>1</v>
       </c>
@@ -12979,35 +12936,33 @@
         <v>1</v>
       </c>
       <c r="H316" s="26"/>
-      <c r="I316" s="37" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="17.25">
+      <c r="I316" s="25" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="38" t="s">
-        <v>964</v>
-      </c>
-      <c r="C317" s="25" t="s">
-        <v>961</v>
-      </c>
-      <c r="D317" s="38" t="s">
-        <v>960</v>
-      </c>
-      <c r="E317" s="26">
-        <v>1</v>
-      </c>
-      <c r="F317" s="26">
-        <v>1</v>
-      </c>
-      <c r="G317" s="26">
-        <v>1</v>
-      </c>
-      <c r="H317" s="26"/>
-      <c r="I317" s="25" t="s">
+      <c r="B317" s="44" t="s">
+        <v>977</v>
+      </c>
+      <c r="C317" s="42" t="s">
         <v>962</v>
+      </c>
+      <c r="D317" s="43"/>
+      <c r="E317" s="43">
+        <v>1</v>
+      </c>
+      <c r="F317" s="43">
+        <v>1</v>
+      </c>
+      <c r="G317" s="43">
+        <v>1</v>
+      </c>
+      <c r="H317" s="43"/>
+      <c r="I317" s="42" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -13015,10 +12970,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="44" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C318" s="42" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D318" s="43"/>
       <c r="E318" s="43">
@@ -13032,19 +12987,17 @@
       </c>
       <c r="H318" s="43"/>
       <c r="I318" s="42" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" ht="16.5">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
       <c r="B319" s="44" t="s">
-        <v>981</v>
-      </c>
-      <c r="C319" s="42" t="s">
-        <v>966</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="C319" s="43"/>
       <c r="D319" s="43"/>
       <c r="E319" s="43">
         <v>1</v>
@@ -13057,7 +13010,7 @@
       </c>
       <c r="H319" s="43"/>
       <c r="I319" s="42" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13065,7 +13018,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="44" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C320" s="43"/>
       <c r="D320" s="43"/>
@@ -13080,17 +13033,19 @@
       </c>
       <c r="H320" s="43"/>
       <c r="I320" s="42" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
       <c r="B321" s="44" t="s">
-        <v>974</v>
-      </c>
-      <c r="C321" s="43"/>
+        <v>979</v>
+      </c>
+      <c r="C321" s="42" t="s">
+        <v>965</v>
+      </c>
       <c r="D321" s="43"/>
       <c r="E321" s="43">
         <v>1</v>
@@ -13103,7 +13058,7 @@
       </c>
       <c r="H321" s="43"/>
       <c r="I321" s="42" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13111,10 +13066,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="44" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C322" s="42" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D322" s="43"/>
       <c r="E322" s="43">
@@ -13128,20 +13083,16 @@
       </c>
       <c r="H322" s="43"/>
       <c r="I322" s="42" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="44" t="s">
-        <v>983</v>
-      </c>
-      <c r="C323" s="42" t="s">
-        <v>969</v>
-      </c>
-      <c r="D323" s="43"/>
+      <c r="B323" s="49" t="s">
+        <v>984</v>
+      </c>
       <c r="E323" s="43">
         <v>1</v>
       </c>
@@ -13151,28 +13102,7 @@
       <c r="G323" s="43">
         <v>1</v>
       </c>
-      <c r="H323" s="43"/>
-      <c r="I323" s="42" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" ht="16.5">
-      <c r="A324" s="16">
-        <v>323</v>
-      </c>
-      <c r="B324" s="49" t="s">
-        <v>987</v>
-      </c>
-      <c r="E324" s="43">
-        <v>1</v>
-      </c>
-      <c r="F324" s="43">
-        <v>1</v>
-      </c>
-      <c r="G324" s="43">
-        <v>1</v>
-      </c>
-      <c r="I324" s="19" t="s">
+      <c r="I323" s="19" t="s">
         <v>642</v>
       </c>
     </row>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3649,10 +3649,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_034_ldfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>立冬福袋</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4170,6 +4166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4215,6 +4212,10 @@
   </si>
   <si>
     <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4430,7 +4431,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4578,8 +4579,11 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4861,10 +4865,10 @@
   <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomRight" activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11269,13 +11273,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C253" s="30" t="s">
         <v>739</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E253" s="30">
         <v>0</v>
@@ -11351,7 +11355,7 @@
         <v>750</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D256" s="25" t="s">
         <v>751</v>
@@ -11366,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="I256" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11867,7 +11871,7 @@
       </c>
       <c r="H275" s="17"/>
       <c r="I275" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="16.5">
@@ -11901,7 +11905,7 @@
         <v>823</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D277" s="32" t="s">
         <v>824</v>
@@ -11917,7 +11921,7 @@
       </c>
       <c r="H277" s="15"/>
       <c r="I277" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12182,13 +12186,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="29" t="s">
+        <v>984</v>
+      </c>
+      <c r="C288" s="29" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="29" t="s">
+      <c r="D288" s="29" t="s">
         <v>863</v>
-      </c>
-      <c r="D288" s="29" t="s">
-        <v>864</v>
       </c>
       <c r="E288" s="30">
         <v>1</v>
@@ -12201,7 +12205,7 @@
       </c>
       <c r="H288" s="30"/>
       <c r="I288" s="29" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="35" customFormat="1" ht="16.5">
@@ -12209,25 +12213,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="33" t="s">
+        <v>864</v>
+      </c>
+      <c r="C289" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C289" s="33" t="s">
+      <c r="D289" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="D289" s="34" t="s">
+      <c r="E289" s="35">
+        <v>1</v>
+      </c>
+      <c r="F289" s="35">
+        <v>1</v>
+      </c>
+      <c r="G289" s="35">
+        <v>1</v>
+      </c>
+      <c r="I289" s="36" t="s">
         <v>867</v>
-      </c>
-      <c r="E289" s="35">
-        <v>1</v>
-      </c>
-      <c r="F289" s="35">
-        <v>1</v>
-      </c>
-      <c r="G289" s="35">
-        <v>1</v>
-      </c>
-      <c r="I289" s="36" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="35" customFormat="1" ht="16.5">
@@ -12235,25 +12239,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="C290" s="33" t="s">
         <v>869</v>
       </c>
-      <c r="C290" s="33" t="s">
+      <c r="D290" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="D290" s="34" t="s">
+      <c r="E290" s="35">
+        <v>1</v>
+      </c>
+      <c r="F290" s="35">
+        <v>1</v>
+      </c>
+      <c r="G290" s="35">
+        <v>1</v>
+      </c>
+      <c r="I290" s="36" t="s">
         <v>871</v>
-      </c>
-      <c r="E290" s="35">
-        <v>1</v>
-      </c>
-      <c r="F290" s="35">
-        <v>1</v>
-      </c>
-      <c r="G290" s="35">
-        <v>1</v>
-      </c>
-      <c r="I290" s="36" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="35" customFormat="1" ht="16.5">
@@ -12261,13 +12265,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="C291" s="33" t="s">
         <v>873</v>
       </c>
-      <c r="C291" s="33" t="s">
+      <c r="D291" s="34" t="s">
         <v>874</v>
-      </c>
-      <c r="D291" s="34" t="s">
-        <v>875</v>
       </c>
       <c r="E291" s="35">
         <v>1</v>
@@ -12287,13 +12291,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C292" s="33" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D292" s="34" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E292" s="35">
         <v>1</v>
@@ -12313,25 +12317,25 @@
         <v>292</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C293" s="33" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D293" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="E293" s="35">
+        <v>1</v>
+      </c>
+      <c r="F293" s="35">
+        <v>1</v>
+      </c>
+      <c r="G293" s="35">
+        <v>1</v>
+      </c>
+      <c r="I293" s="36" t="s">
         <v>879</v>
-      </c>
-      <c r="E293" s="35">
-        <v>1</v>
-      </c>
-      <c r="F293" s="35">
-        <v>1</v>
-      </c>
-      <c r="G293" s="35">
-        <v>1</v>
-      </c>
-      <c r="I293" s="36" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="35" customFormat="1" ht="16.5">
@@ -12339,13 +12343,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="34" t="s">
+        <v>882</v>
+      </c>
+      <c r="C294" s="33" t="s">
         <v>883</v>
       </c>
-      <c r="C294" s="33" t="s">
+      <c r="D294" s="34" t="s">
         <v>884</v>
-      </c>
-      <c r="D294" s="34" t="s">
-        <v>885</v>
       </c>
       <c r="E294" s="35">
         <v>1</v>
@@ -12365,13 +12369,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="C295" s="33" t="s">
         <v>886</v>
       </c>
-      <c r="C295" s="33" t="s">
+      <c r="D295" s="34" t="s">
         <v>887</v>
-      </c>
-      <c r="D295" s="34" t="s">
-        <v>888</v>
       </c>
       <c r="E295" s="35">
         <v>1</v>
@@ -12391,13 +12395,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="C296" s="15" t="s">
-        <v>890</v>
-      </c>
       <c r="D296" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -12409,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="16.5">
@@ -12417,13 +12421,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12435,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12443,14 +12447,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="C298" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="C298" s="15" t="s">
+      <c r="D298" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="D298" s="20" t="s">
-        <v>897</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12461,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="35" customFormat="1" ht="16.5">
@@ -12469,25 +12473,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="34" t="s">
+        <v>897</v>
+      </c>
+      <c r="C299" s="33" t="s">
         <v>898</v>
       </c>
-      <c r="C299" s="33" t="s">
+      <c r="D299" s="34" t="s">
         <v>899</v>
       </c>
-      <c r="D299" s="34" t="s">
+      <c r="E299" s="35">
+        <v>1</v>
+      </c>
+      <c r="F299" s="35">
+        <v>1</v>
+      </c>
+      <c r="G299" s="35">
+        <v>1</v>
+      </c>
+      <c r="I299" s="36" t="s">
         <v>900</v>
-      </c>
-      <c r="E299" s="35">
-        <v>1</v>
-      </c>
-      <c r="F299" s="35">
-        <v>1</v>
-      </c>
-      <c r="G299" s="35">
-        <v>1</v>
-      </c>
-      <c r="I299" s="36" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12495,13 +12499,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="C300" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="C300" s="15" t="s">
+      <c r="D300" s="18" t="s">
         <v>905</v>
-      </c>
-      <c r="D300" s="18" t="s">
-        <v>906</v>
       </c>
       <c r="E300" s="17">
         <v>0</v>
@@ -12514,7 +12518,7 @@
       </c>
       <c r="H300" s="17"/>
       <c r="I300" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12522,13 +12526,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C301" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D301" s="18" t="s">
         <v>908</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>909</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12541,7 +12545,7 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12549,13 +12553,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="C302" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="D302" s="18" t="s">
         <v>912</v>
-      </c>
-      <c r="C302" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>913</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12568,7 +12572,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="35" customFormat="1" ht="16.5">
@@ -12576,25 +12580,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="34" t="s">
+        <v>913</v>
+      </c>
+      <c r="C303" s="33" t="s">
+        <v>917</v>
+      </c>
+      <c r="D303" s="34" t="s">
         <v>914</v>
       </c>
-      <c r="C303" s="33" t="s">
-        <v>918</v>
-      </c>
-      <c r="D303" s="34" t="s">
+      <c r="E303" s="35">
+        <v>1</v>
+      </c>
+      <c r="F303" s="35">
+        <v>1</v>
+      </c>
+      <c r="G303" s="35">
+        <v>1</v>
+      </c>
+      <c r="I303" s="36" t="s">
         <v>915</v>
-      </c>
-      <c r="E303" s="35">
-        <v>1</v>
-      </c>
-      <c r="F303" s="35">
-        <v>1</v>
-      </c>
-      <c r="G303" s="35">
-        <v>1</v>
-      </c>
-      <c r="I303" s="36" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12602,13 +12606,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="45" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C304" s="46" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D304" s="45" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E304" s="47">
         <v>1</v>
@@ -12621,7 +12625,7 @@
       </c>
       <c r="H304" s="47"/>
       <c r="I304" s="46" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12629,13 +12633,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="45" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C305" s="46" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D305" s="45" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E305" s="47">
         <v>1</v>
@@ -12648,7 +12652,7 @@
       </c>
       <c r="H305" s="47"/>
       <c r="I305" s="46" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12656,13 +12660,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="45" t="s">
+        <v>968</v>
+      </c>
+      <c r="C306" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="D306" s="45" t="s">
         <v>969</v>
-      </c>
-      <c r="C306" s="45" t="s">
-        <v>946</v>
-      </c>
-      <c r="D306" s="45" t="s">
-        <v>970</v>
       </c>
       <c r="E306" s="47">
         <v>1</v>
@@ -12683,13 +12687,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12702,7 +12706,7 @@
       </c>
       <c r="H307" s="17"/>
       <c r="I307" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12710,13 +12714,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -12729,7 +12733,7 @@
       </c>
       <c r="H308" s="17"/>
       <c r="I308" s="15" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="35" customFormat="1" ht="16.5">
@@ -12737,25 +12741,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
+        <v>929</v>
+      </c>
+      <c r="C309" s="33" t="s">
         <v>930</v>
       </c>
-      <c r="C309" s="33" t="s">
+      <c r="D309" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="E309" s="35">
+        <v>1</v>
+      </c>
+      <c r="F309" s="35">
+        <v>1</v>
+      </c>
+      <c r="G309" s="35">
+        <v>1</v>
+      </c>
+      <c r="I309" s="33" t="s">
         <v>931</v>
-      </c>
-      <c r="D309" s="34" t="s">
-        <v>929</v>
-      </c>
-      <c r="E309" s="35">
-        <v>1</v>
-      </c>
-      <c r="F309" s="35">
-        <v>1</v>
-      </c>
-      <c r="G309" s="35">
-        <v>1</v>
-      </c>
-      <c r="I309" s="33" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12763,13 +12767,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>933</v>
-      </c>
-      <c r="C310" s="15" t="s">
-        <v>935</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>934</v>
       </c>
       <c r="E310" s="17">
         <v>1</v>
@@ -12782,7 +12786,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12790,14 +12794,14 @@
         <v>310</v>
       </c>
       <c r="B311" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="D311" s="18" t="s">
         <v>937</v>
       </c>
-      <c r="C311" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="D311" s="18" t="s">
-        <v>938</v>
-      </c>
       <c r="E311" s="17">
         <v>1</v>
       </c>
@@ -12808,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="I311" s="15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12816,13 +12820,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="D312" s="18" t="s">
         <v>944</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>945</v>
       </c>
       <c r="E312" s="17">
         <v>0</v>
@@ -12839,13 +12843,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="31" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E313" s="17">
         <v>1</v>
@@ -12857,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="17.25">
@@ -12865,13 +12869,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="31" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D314" s="31" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E314" s="17">
         <v>1</v>
@@ -12891,13 +12895,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="27" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C315" s="25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D315" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E315" s="26">
         <v>1</v>
@@ -12910,7 +12914,7 @@
       </c>
       <c r="H315" s="26"/>
       <c r="I315" s="37" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12918,13 +12922,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="38" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C316" s="25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D316" s="38" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E316" s="26">
         <v>1</v>
@@ -12937,7 +12941,7 @@
       </c>
       <c r="H316" s="26"/>
       <c r="I316" s="25" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -12945,10 +12949,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="44" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C317" s="42" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D317" s="43"/>
       <c r="E317" s="43">
@@ -12962,7 +12966,7 @@
       </c>
       <c r="H317" s="43"/>
       <c r="I317" s="42" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -12970,10 +12974,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="44" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C318" s="42" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D318" s="43"/>
       <c r="E318" s="43">
@@ -12987,7 +12991,7 @@
       </c>
       <c r="H318" s="43"/>
       <c r="I318" s="42" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12995,7 +12999,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="44" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C319" s="43"/>
       <c r="D319" s="43"/>
@@ -13010,7 +13014,7 @@
       </c>
       <c r="H319" s="43"/>
       <c r="I319" s="42" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13018,7 +13022,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="44" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C320" s="43"/>
       <c r="D320" s="43"/>
@@ -13033,7 +13037,7 @@
       </c>
       <c r="H320" s="43"/>
       <c r="I320" s="42" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13041,10 +13045,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="44" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C321" s="42" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D321" s="43"/>
       <c r="E321" s="43">
@@ -13058,7 +13062,7 @@
       </c>
       <c r="H321" s="43"/>
       <c r="I321" s="42" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13066,10 +13070,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C322" s="42" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D322" s="43"/>
       <c r="E322" s="43">
@@ -13083,7 +13087,7 @@
       </c>
       <c r="H322" s="43"/>
       <c r="I322" s="42" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
@@ -13091,8 +13095,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>984</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="C323" s="43"/>
+      <c r="D323" s="43"/>
       <c r="E323" s="43">
         <v>1</v>
       </c>
@@ -13102,7 +13108,8 @@
       <c r="G323" s="43">
         <v>1</v>
       </c>
-      <c r="I323" s="19" t="s">
+      <c r="H323" s="43"/>
+      <c r="I323" s="50" t="s">
         <v>642</v>
       </c>
     </row>

--- a/config_2.2/game_module_config.xlsx
+++ b/config_2.2/game_module_config.xlsx
@@ -4865,10 +4865,10 @@
   <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C235" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C284" sqref="C284"/>
+      <selection pane="bottomRight" activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11282,13 +11282,13 @@
         <v>967</v>
       </c>
       <c r="E253" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" s="30"/>
       <c r="I253" s="29" t="s">
